--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_10_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_10_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>488274.3127772309</v>
+        <v>487561.7083031897</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30.43907246286895</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8758480566236</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.4425103176721</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>137.2982308243757</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.66716559384196</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.53078872718767</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.17968824550869</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.13476116065502</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>71.82086528673101</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.188502199810728</v>
+        <v>9.188502199810671</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>27.49864629766436</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668495</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851671</v>
+        <v>13.25780256851665</v>
       </c>
       <c r="T12" t="n">
-        <v>36.6405496213481</v>
+        <v>36.64054962134804</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437498</v>
+        <v>58.89840834437492</v>
       </c>
       <c r="V12" t="n">
-        <v>62.31927159084705</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="W12" t="n">
-        <v>88.3749342524564</v>
+        <v>132.3035280854901</v>
       </c>
       <c r="X12" t="n">
-        <v>38.98326511491541</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="Y12" t="n">
-        <v>188.5623770505816</v>
+        <v>45.05463680947037</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650166</v>
+        <v>25.0935346565016</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412747</v>
+        <v>57.10576830412742</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605263</v>
+        <v>45.43126511605257</v>
       </c>
       <c r="U13" t="n">
-        <v>110.3268994226098</v>
+        <v>110.3268994226097</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989471</v>
+        <v>66.77936585989465</v>
       </c>
       <c r="W13" t="n">
         <v>111.9810577647801</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368734</v>
+        <v>43.58980608368728</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961323</v>
+        <v>38.81162348961317</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>188.5623770505816</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>110.314849742809</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.66716559384204</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.53078872718776</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.17968824550876</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.13476116065511</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>71.82086528673108</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>166.0857417061522</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810728</v>
+        <v>9.188502199810756</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.25780256851671</v>
+        <v>13.25780256851673</v>
       </c>
       <c r="T15" t="n">
-        <v>36.6405496213481</v>
+        <v>36.64054962134813</v>
       </c>
       <c r="U15" t="n">
-        <v>58.89840834437498</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084705</v>
+        <v>62.31927159084708</v>
       </c>
       <c r="W15" t="n">
-        <v>188.5623770505816</v>
+        <v>88.37493425245643</v>
       </c>
       <c r="X15" t="n">
-        <v>38.98326511491541</v>
+        <v>38.98326511491544</v>
       </c>
       <c r="Y15" t="n">
-        <v>165.0992572475741</v>
+        <v>180.2424435996812</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650166</v>
+        <v>25.09353465650169</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412747</v>
+        <v>57.1057683041275</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605263</v>
+        <v>45.43126511605266</v>
       </c>
       <c r="U16" t="n">
         <v>110.3268994226098</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989471</v>
+        <v>66.77936585989474</v>
       </c>
       <c r="W16" t="n">
-        <v>111.9810577647801</v>
+        <v>111.9810577647802</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368734</v>
+        <v>43.58980608368736</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961323</v>
+        <v>38.81162348961325</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>52.78090558911765</v>
       </c>
       <c r="D17" t="n">
-        <v>40.34756785016503</v>
+        <v>40.34756785016612</v>
       </c>
       <c r="E17" t="n">
         <v>74.05432026957499</v>
@@ -1859,7 +1859,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H17" t="n">
-        <v>49.5933655819402</v>
+        <v>49.59336558194019</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1977,16 +1977,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>106.7810505784292</v>
       </c>
       <c r="W18" t="n">
-        <v>6.070052519268423</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="X18" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>74.05432026957499</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7746578479523</v>
+        <v>105.7746578479524</v>
       </c>
       <c r="G20" t="n">
         <v>121.4132451535436</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>61.11604128637136</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2202,16 +2202,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.5623770505816</v>
+        <v>159.2392352254838</v>
       </c>
     </row>
     <row r="22">
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>7.957652155789662</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>188.5623770505818</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>68.61682005719443</v>
       </c>
       <c r="X24" t="n">
-        <v>188.5623770505818</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
     </row>
     <row r="25">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6202637098006</v>
+        <v>160.6202637098007</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7385207131461</v>
+        <v>136.7385207131462</v>
       </c>
       <c r="D26" t="n">
-        <v>124.3051829741945</v>
+        <v>124.3051829741946</v>
       </c>
       <c r="E26" t="n">
-        <v>158.0119353936034</v>
+        <v>158.0119353936035</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7322729719807</v>
+        <v>189.7322729719808</v>
       </c>
       <c r="G26" t="n">
         <v>205.3708602775721</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5509807059686</v>
+        <v>133.5509807059687</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036446</v>
+        <v>27.52983825036455</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203118</v>
+        <v>14.04236090203127</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177534</v>
+        <v>8.997433817177617</v>
       </c>
       <c r="U26" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325358</v>
       </c>
       <c r="V26" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411194</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4294871577341</v>
+        <v>124.4294871577342</v>
       </c>
       <c r="X26" t="n">
-        <v>146.3157376266734</v>
+        <v>146.3157376266735</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8185907504171</v>
+        <v>168.8185907504172</v>
       </c>
     </row>
     <row r="27">
@@ -2640,13 +2640,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>44.66014819699235</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
-        <v>1.503222277870549</v>
+        <v>1.503222277870633</v>
       </c>
       <c r="U27" t="n">
-        <v>23.76108100089743</v>
+        <v>23.76108100089751</v>
       </c>
       <c r="V27" t="n">
-        <v>27.1819442473695</v>
+        <v>135.3610220475555</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.23760690897893</v>
       </c>
       <c r="X27" t="n">
-        <v>3.84593777143786</v>
+        <v>3.845937771437946</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>9.917309465992957</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096065</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257516</v>
       </c>
       <c r="U28" t="n">
-        <v>75.18957207913225</v>
+        <v>75.18957207913233</v>
       </c>
       <c r="V28" t="n">
-        <v>31.64203851641716</v>
+        <v>31.64203851641724</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130267</v>
       </c>
       <c r="X28" t="n">
-        <v>8.452478740209784</v>
+        <v>8.45247874020987</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135759</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036447</v>
+        <v>27.52983825036446</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203118</v>
+        <v>14.04236090203119</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177534</v>
+        <v>8.997433817177523</v>
       </c>
       <c r="U29" t="n">
         <v>36.6835379432535</v>
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>102.5675125458898</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.503222277870549</v>
+        <v>1.503222277870548</v>
       </c>
       <c r="U30" t="n">
         <v>23.76108100089743</v>
       </c>
       <c r="V30" t="n">
-        <v>27.1819442473695</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.23760690897885</v>
+        <v>162.2714311276953</v>
       </c>
       <c r="X30" t="n">
         <v>3.84593777143786</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>160.6202637098005</v>
+        <v>160.6202637098006</v>
       </c>
       <c r="C32" t="n">
-        <v>136.738520713146</v>
+        <v>136.7385207131461</v>
       </c>
       <c r="D32" t="n">
-        <v>124.3051829741945</v>
+        <v>124.3051829741946</v>
       </c>
       <c r="E32" t="n">
         <v>158.0119353936034</v>
       </c>
       <c r="F32" t="n">
-        <v>189.7322729719807</v>
+        <v>189.7322729719808</v>
       </c>
       <c r="G32" t="n">
-        <v>205.370860277572</v>
+        <v>205.3708602775721</v>
       </c>
       <c r="H32" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I32" t="n">
-        <v>27.52983825036441</v>
+        <v>27.52983825036449</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203113</v>
+        <v>14.04236090203121</v>
       </c>
       <c r="T32" t="n">
-        <v>8.997433817177477</v>
+        <v>8.99743381717756</v>
       </c>
       <c r="U32" t="n">
-        <v>36.68353794325344</v>
+        <v>36.68353794325353</v>
       </c>
       <c r="V32" t="n">
-        <v>107.4128069411192</v>
+        <v>107.4128069411193</v>
       </c>
       <c r="W32" t="n">
-        <v>124.4294871577341</v>
+        <v>124.4294871577342</v>
       </c>
       <c r="X32" t="n">
-        <v>146.3157376266733</v>
+        <v>146.3157376266734</v>
       </c>
       <c r="Y32" t="n">
-        <v>168.8185907504171</v>
+        <v>168.8185907504172</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>59.34429053463469</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668495</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5874518930719</v>
+        <v>12.031983524607</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870492</v>
+        <v>1.503222277870577</v>
       </c>
       <c r="U33" t="n">
-        <v>23.76108100089737</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V33" t="n">
-        <v>27.18194424736944</v>
+        <v>27.18194424736953</v>
       </c>
       <c r="W33" t="n">
-        <v>53.23760690897879</v>
+        <v>53.23760690897888</v>
       </c>
       <c r="X33" t="n">
-        <v>3.845937771437804</v>
+        <v>3.845937771437889</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>9.917309465992901</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064986</v>
+        <v>21.96844096064995</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257502</v>
+        <v>10.29393777257511</v>
       </c>
       <c r="U34" t="n">
-        <v>75.18957207913219</v>
+        <v>75.18957207913228</v>
       </c>
       <c r="V34" t="n">
-        <v>31.6420385164171</v>
+        <v>31.64203851641719</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130252</v>
+        <v>76.84373042130261</v>
       </c>
       <c r="X34" t="n">
-        <v>8.452478740209727</v>
+        <v>8.452478740209813</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135617</v>
+        <v>3.674296146135703</v>
       </c>
     </row>
     <row r="35">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>186.3163771421645</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>57.12313446553048</v>
       </c>
       <c r="T36" t="n">
         <v>214.9701989459033</v>
@@ -3405,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3630,22 +3630,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>142.7157812499598</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4583944746289</v>
+        <v>80.35347127122922</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>109.2086824627816</v>
       </c>
       <c r="D41" t="n">
-        <v>96.7753447238301</v>
+        <v>96.77534472383007</v>
       </c>
       <c r="E41" t="n">
-        <v>130.482097143239</v>
+        <v>130.4820971432389</v>
       </c>
       <c r="F41" t="n">
         <v>162.2024347216163</v>
@@ -3755,7 +3755,7 @@
         <v>177.8410220272076</v>
       </c>
       <c r="H41" t="n">
-        <v>106.0211424556042</v>
+        <v>106.0211424556041</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.15369969288907</v>
+        <v>9.153699692889042</v>
       </c>
       <c r="V41" t="n">
-        <v>79.88296869075484</v>
+        <v>79.88296869075481</v>
       </c>
       <c r="W41" t="n">
-        <v>96.89964890736971</v>
+        <v>96.89964890736968</v>
       </c>
       <c r="X41" t="n">
         <v>118.7858993763089</v>
@@ -3822,13 +3822,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>218.642967946046</v>
+        <v>230.1025119523192</v>
       </c>
       <c r="W42" t="n">
-        <v>25.70776865861441</v>
+        <v>25.70776865861438</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.65973382876781</v>
+        <v>47.65973382876778</v>
       </c>
       <c r="V43" t="n">
-        <v>4.112200266052724</v>
+        <v>4.112200266052696</v>
       </c>
       <c r="W43" t="n">
-        <v>49.31389217093815</v>
+        <v>49.31389217093812</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4059,16 +4059,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>152.8569417917886</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,25 +4098,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668495</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>33.68817415118189</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.70776865861438</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>540.217046148771</v>
+        <v>387.4624694243129</v>
       </c>
       <c r="C11" t="n">
-        <v>366.6050784148078</v>
+        <v>387.4624694243129</v>
       </c>
       <c r="D11" t="n">
-        <v>205.5520376898865</v>
+        <v>387.4624694243129</v>
       </c>
       <c r="E11" t="n">
-        <v>15.08499016404653</v>
+        <v>387.4624694243129</v>
       </c>
       <c r="F11" t="n">
-        <v>15.08499016404653</v>
+        <v>387.4624694243129</v>
       </c>
       <c r="G11" t="n">
-        <v>15.08499016404653</v>
+        <v>248.7773877835294</v>
       </c>
       <c r="H11" t="n">
-        <v>15.08499016404653</v>
+        <v>78.38515743055356</v>
       </c>
       <c r="I11" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="J11" t="n">
-        <v>15.08499016404653</v>
+        <v>115.6457740567087</v>
       </c>
       <c r="K11" t="n">
-        <v>91.54921601079511</v>
+        <v>267.4711326400899</v>
       </c>
       <c r="L11" t="n">
-        <v>138.3225542410891</v>
+        <v>314.2444708703839</v>
       </c>
       <c r="M11" t="n">
-        <v>219.2428649642409</v>
+        <v>395.1647815935357</v>
       </c>
       <c r="N11" t="n">
-        <v>405.9196182443167</v>
+        <v>470.5520315267739</v>
       </c>
       <c r="O11" t="n">
-        <v>592.5963715243925</v>
+        <v>504.8287151602036</v>
       </c>
       <c r="P11" t="n">
-        <v>754.2495082023264</v>
+        <v>666.4818518381376</v>
       </c>
       <c r="Q11" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R11" t="n">
-        <v>754.2495082023264</v>
+        <v>737.5517418112278</v>
       </c>
       <c r="S11" t="n">
-        <v>754.2495082023264</v>
+        <v>687.8752890379867</v>
       </c>
       <c r="T11" t="n">
-        <v>754.2495082023264</v>
+        <v>643.2947222090422</v>
       </c>
       <c r="U11" t="n">
-        <v>754.2495082023264</v>
+        <v>570.7483936365865</v>
       </c>
       <c r="V11" t="n">
-        <v>754.2495082023264</v>
+        <v>570.7483936365865</v>
       </c>
       <c r="W11" t="n">
-        <v>754.2495082023264</v>
+        <v>570.7483936365865</v>
       </c>
       <c r="X11" t="n">
-        <v>570.9635839900527</v>
+        <v>387.4624694243129</v>
       </c>
       <c r="Y11" t="n">
-        <v>570.9635839900527</v>
+        <v>387.4624694243129</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>255.3776748450448</v>
+        <v>77.35437081744583</v>
       </c>
       <c r="C12" t="n">
-        <v>246.0963594917006</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="D12" t="n">
-        <v>246.0963594917006</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="E12" t="n">
-        <v>246.0963594917006</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="F12" t="n">
-        <v>246.0963594917006</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="G12" t="n">
-        <v>95.84946586578289</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="H12" t="n">
         <v>68.07305546410171</v>
@@ -5121,7 +5121,7 @@
         <v>15.08499016404653</v>
       </c>
       <c r="K12" t="n">
-        <v>53.0770571963512</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L12" t="n">
         <v>170.4486221681695</v>
@@ -5130,40 +5130,40 @@
         <v>352.1703666486677</v>
       </c>
       <c r="N12" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O12" t="n">
-        <v>670.5904072110304</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P12" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.3338450905401</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="R12" t="n">
-        <v>747.3338450905401</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="S12" t="n">
-        <v>733.9421253243615</v>
+        <v>733.9421253243618</v>
       </c>
       <c r="T12" t="n">
-        <v>696.9314691411817</v>
+        <v>696.9314691411819</v>
       </c>
       <c r="U12" t="n">
-        <v>637.4381273791868</v>
+        <v>637.438127379187</v>
       </c>
       <c r="V12" t="n">
-        <v>574.4893681965129</v>
+        <v>446.971079853347</v>
       </c>
       <c r="W12" t="n">
-        <v>485.2217578404964</v>
+        <v>313.331152494266</v>
       </c>
       <c r="X12" t="n">
-        <v>445.8447223708848</v>
+        <v>122.864104968426</v>
       </c>
       <c r="Y12" t="n">
-        <v>255.3776748450448</v>
+        <v>77.35437081744583</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.79059153703776</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C13" t="n">
-        <v>27.54433520609477</v>
+        <v>26.8387338331036</v>
       </c>
       <c r="D13" t="n">
-        <v>60.35986428920081</v>
+        <v>59.6542629162097</v>
       </c>
       <c r="E13" t="n">
-        <v>60.35986428920081</v>
+        <v>95.94123594741666</v>
       </c>
       <c r="F13" t="n">
-        <v>60.35986428920081</v>
+        <v>134.9499753824642</v>
       </c>
       <c r="G13" t="n">
-        <v>60.35986428920081</v>
+        <v>134.9499753824642</v>
       </c>
       <c r="H13" t="n">
-        <v>72.74139012980848</v>
+        <v>134.9499753824642</v>
       </c>
       <c r="I13" t="n">
-        <v>72.74139012980848</v>
+        <v>134.9499753824642</v>
       </c>
       <c r="J13" t="n">
-        <v>130.2610811964201</v>
+        <v>192.4696664490758</v>
       </c>
       <c r="K13" t="n">
-        <v>130.2610811964201</v>
+        <v>192.4696664490758</v>
       </c>
       <c r="L13" t="n">
-        <v>274.999320651678</v>
+        <v>192.4696664490758</v>
       </c>
       <c r="M13" t="n">
-        <v>426.6043674038784</v>
+        <v>192.4696664490758</v>
       </c>
       <c r="N13" t="n">
-        <v>426.6043674038784</v>
+        <v>352.6838979728403</v>
       </c>
       <c r="O13" t="n">
-        <v>426.6043674038784</v>
+        <v>352.6838979728403</v>
       </c>
       <c r="P13" t="n">
-        <v>519.2459201612859</v>
+        <v>468.6318884260457</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612859</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577488</v>
+        <v>493.8989154577484</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111554</v>
+        <v>436.2163212111551</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272639</v>
+        <v>390.3261544272636</v>
       </c>
       <c r="U13" t="n">
-        <v>278.8848418791732</v>
+        <v>278.884841879173</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701887</v>
+        <v>211.4309369701885</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980468</v>
+        <v>98.31875740980456</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456494</v>
+        <v>54.28865025456489</v>
       </c>
       <c r="Y13" t="n">
         <v>15.08499016404653</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>205.5520376898865</v>
+        <v>570.7483936365863</v>
       </c>
       <c r="C14" t="n">
-        <v>205.5520376898865</v>
+        <v>570.7483936365863</v>
       </c>
       <c r="D14" t="n">
-        <v>205.5520376898865</v>
+        <v>570.7483936365863</v>
       </c>
       <c r="E14" t="n">
-        <v>205.5520376898865</v>
+        <v>570.7483936365863</v>
       </c>
       <c r="F14" t="n">
-        <v>15.08499016404653</v>
+        <v>380.2813461107463</v>
       </c>
       <c r="G14" t="n">
-        <v>15.08499016404653</v>
+        <v>189.8142985849062</v>
       </c>
       <c r="H14" t="n">
-        <v>15.08499016404653</v>
+        <v>78.38515743055365</v>
       </c>
       <c r="I14" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="J14" t="n">
-        <v>15.08499016404653</v>
+        <v>115.6457740567086</v>
       </c>
       <c r="K14" t="n">
-        <v>15.08499016404653</v>
+        <v>285.5745218649278</v>
       </c>
       <c r="L14" t="n">
-        <v>61.85832839434055</v>
+        <v>332.3478600952218</v>
       </c>
       <c r="M14" t="n">
-        <v>248.5350816744163</v>
+        <v>413.2681708183736</v>
       </c>
       <c r="N14" t="n">
-        <v>435.2118349544921</v>
+        <v>488.6554207516118</v>
       </c>
       <c r="O14" t="n">
-        <v>621.8885882345679</v>
+        <v>522.9321043850414</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4818518381376</v>
+        <v>666.4818518381377</v>
       </c>
       <c r="Q14" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R14" t="n">
-        <v>754.2495082023264</v>
+        <v>737.5517418112278</v>
       </c>
       <c r="S14" t="n">
-        <v>754.2495082023264</v>
+        <v>687.8752890379866</v>
       </c>
       <c r="T14" t="n">
-        <v>754.2495082023264</v>
+        <v>643.294722209042</v>
       </c>
       <c r="U14" t="n">
-        <v>754.2495082023264</v>
+        <v>570.7483936365863</v>
       </c>
       <c r="V14" t="n">
-        <v>754.2495082023264</v>
+        <v>570.7483936365863</v>
       </c>
       <c r="W14" t="n">
-        <v>754.2495082023264</v>
+        <v>570.7483936365863</v>
       </c>
       <c r="X14" t="n">
-        <v>586.4861327415665</v>
+        <v>570.7483936365863</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.0190852157265</v>
+        <v>570.7483936365863</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>184.7940218001466</v>
+        <v>132.8079422639274</v>
       </c>
       <c r="C15" t="n">
-        <v>175.5127064468024</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="D15" t="n">
-        <v>175.5127064468024</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="E15" t="n">
-        <v>175.5127064468024</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="F15" t="n">
-        <v>15.08499016404653</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="G15" t="n">
-        <v>15.08499016404653</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="H15" t="n">
-        <v>15.08499016404653</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="I15" t="n">
         <v>15.08499016404653</v>
@@ -5358,7 +5358,7 @@
         <v>15.08499016404653</v>
       </c>
       <c r="K15" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L15" t="n">
         <v>170.4486221681695</v>
@@ -5367,40 +5367,40 @@
         <v>352.1703666486677</v>
       </c>
       <c r="N15" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O15" t="n">
-        <v>670.5904072110304</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P15" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q15" t="n">
-        <v>754.2495082023264</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="R15" t="n">
-        <v>754.2495082023264</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="S15" t="n">
-        <v>740.8577884361479</v>
+        <v>733.9421253243617</v>
       </c>
       <c r="T15" t="n">
-        <v>703.847132252968</v>
+        <v>696.9314691411818</v>
       </c>
       <c r="U15" t="n">
-        <v>644.3537904909731</v>
+        <v>506.4644216153417</v>
       </c>
       <c r="V15" t="n">
-        <v>581.4050313082993</v>
+        <v>443.5156624326679</v>
       </c>
       <c r="W15" t="n">
-        <v>390.9379837824592</v>
+        <v>354.2480520766513</v>
       </c>
       <c r="X15" t="n">
-        <v>351.5609483128477</v>
+        <v>314.8710166070398</v>
       </c>
       <c r="Y15" t="n">
-        <v>184.7940218001466</v>
+        <v>132.8079422639274</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.08499016404653</v>
+        <v>15.79059153703773</v>
       </c>
       <c r="C16" t="n">
-        <v>26.83873383310354</v>
+        <v>27.54433520609471</v>
       </c>
       <c r="D16" t="n">
-        <v>59.65426291620957</v>
+        <v>60.35986428920072</v>
       </c>
       <c r="E16" t="n">
-        <v>95.94123594741647</v>
+        <v>96.6468373204076</v>
       </c>
       <c r="F16" t="n">
-        <v>95.94123594741647</v>
+        <v>135.655576755455</v>
       </c>
       <c r="G16" t="n">
-        <v>105.4739708192664</v>
+        <v>145.1883116273049</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8554966598741</v>
+        <v>157.5698374679126</v>
       </c>
       <c r="I16" t="n">
-        <v>131.2018985087844</v>
+        <v>170.9162393168229</v>
       </c>
       <c r="J16" t="n">
-        <v>131.2018985087844</v>
+        <v>228.4359303834345</v>
       </c>
       <c r="K16" t="n">
-        <v>241.4059074697822</v>
+        <v>338.6399393444322</v>
       </c>
       <c r="L16" t="n">
-        <v>386.1441469250401</v>
+        <v>338.6399393444322</v>
       </c>
       <c r="M16" t="n">
-        <v>386.1441469250401</v>
+        <v>490.2449860966325</v>
       </c>
       <c r="N16" t="n">
-        <v>386.1441469250401</v>
+        <v>490.2449860966325</v>
       </c>
       <c r="O16" t="n">
-        <v>468.6318884260462</v>
+        <v>490.2449860966325</v>
       </c>
       <c r="P16" t="n">
-        <v>468.6318884260462</v>
+        <v>490.2449860966325</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612859</v>
+        <v>519.2459201612862</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577488</v>
+        <v>493.8989154577491</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111554</v>
+        <v>436.2163212111557</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272639</v>
+        <v>390.3261544272641</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791732</v>
+        <v>278.8848418791733</v>
       </c>
       <c r="V16" t="n">
         <v>211.4309369701887</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980468</v>
+        <v>98.31875740980473</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456494</v>
+        <v>54.28865025456497</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404653</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.533537934041</v>
+        <v>463.5335379340413</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844272</v>
+        <v>410.2194918844275</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438557</v>
+        <v>369.4643728438556</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372143</v>
+        <v>294.6620291372142</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019089</v>
+        <v>187.8189404019088</v>
       </c>
       <c r="G17" t="n">
         <v>65.179298832673</v>
@@ -5510,55 +5510,55 @@
         <v>15.08499016404653</v>
       </c>
       <c r="I17" t="n">
-        <v>25.25732378959978</v>
+        <v>70.94848926897384</v>
       </c>
       <c r="J17" t="n">
-        <v>25.25732378959978</v>
+        <v>70.94848926897384</v>
       </c>
       <c r="K17" t="n">
-        <v>25.25732378959978</v>
+        <v>70.94848926897384</v>
       </c>
       <c r="L17" t="n">
-        <v>72.03066201989378</v>
+        <v>117.7218274992679</v>
       </c>
       <c r="M17" t="n">
-        <v>258.7074152999696</v>
+        <v>198.6421382224197</v>
       </c>
       <c r="N17" t="n">
-        <v>334.0946652332077</v>
+        <v>274.0293881556578</v>
       </c>
       <c r="O17" t="n">
-        <v>520.7714185132835</v>
+        <v>308.3060717890875</v>
       </c>
       <c r="P17" t="n">
-        <v>520.7714185132835</v>
+        <v>308.3060717890875</v>
       </c>
       <c r="Q17" t="n">
-        <v>707.4481717933593</v>
+        <v>462.4829784168847</v>
       </c>
       <c r="R17" t="n">
-        <v>707.4481717933593</v>
+        <v>564.0214906197998</v>
       </c>
       <c r="S17" t="n">
-        <v>707.4481717933593</v>
+        <v>633.237592299577</v>
       </c>
       <c r="T17" t="n">
-        <v>707.4481717933593</v>
+        <v>707.4481717933594</v>
       </c>
       <c r="U17" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="V17" t="n">
         <v>730.55739525577</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338449</v>
+        <v>689.6767164338451</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059207</v>
+        <v>626.6887139059208</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.9705567075482</v>
+        <v>540.9705567075484</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>188.6481940426321</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="C18" t="n">
-        <v>188.6481940426321</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="D18" t="n">
-        <v>188.6481940426321</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="E18" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="F18" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="G18" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="H18" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="I18" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="J18" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K18" t="n">
-        <v>53.0770571963512</v>
+        <v>53.07705719635138</v>
       </c>
       <c r="L18" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681697</v>
       </c>
       <c r="M18" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486678</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287434</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O18" t="n">
-        <v>670.5904072110304</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P18" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q18" t="n">
-        <v>754.2495082023264</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="R18" t="n">
-        <v>754.2495082023264</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="S18" t="n">
-        <v>563.7824606764864</v>
+        <v>556.8667975647002</v>
       </c>
       <c r="T18" t="n">
-        <v>563.7824606764864</v>
+        <v>556.8667975647002</v>
       </c>
       <c r="U18" t="n">
-        <v>563.7824606764864</v>
+        <v>366.3997500388601</v>
       </c>
       <c r="V18" t="n">
-        <v>563.7824606764864</v>
+        <v>258.5401029899417</v>
       </c>
       <c r="W18" t="n">
-        <v>557.6510944954072</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="X18" t="n">
-        <v>367.1840469695671</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="Y18" t="n">
-        <v>367.1840469695671</v>
+        <v>68.07305546410171</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.5335379340412</v>
+        <v>463.5335379340413</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844276</v>
+        <v>410.2194918844277</v>
       </c>
       <c r="D20" t="n">
-        <v>369.4643728438558</v>
+        <v>369.4643728438559</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372144</v>
+        <v>294.6620291372145</v>
       </c>
       <c r="F20" t="n">
         <v>187.818940401909</v>
       </c>
       <c r="G20" t="n">
-        <v>65.17929883267298</v>
+        <v>65.179298832673</v>
       </c>
       <c r="H20" t="n">
         <v>15.08499016404653</v>
@@ -5750,52 +5750,52 @@
         <v>15.08499016404653</v>
       </c>
       <c r="J20" t="n">
-        <v>38.44864261669534</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="K20" t="n">
-        <v>38.44864261669534</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="L20" t="n">
-        <v>85.22198084698934</v>
+        <v>248.5350816744164</v>
       </c>
       <c r="M20" t="n">
-        <v>166.1422915701411</v>
+        <v>329.4553923975682</v>
       </c>
       <c r="N20" t="n">
-        <v>241.5295415033792</v>
+        <v>404.8426423308064</v>
       </c>
       <c r="O20" t="n">
-        <v>275.8062251368088</v>
+        <v>439.119325964236</v>
       </c>
       <c r="P20" t="n">
-        <v>275.8062251368088</v>
+        <v>498.3566532424735</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.4829784168846</v>
+        <v>685.0334065225493</v>
       </c>
       <c r="R20" t="n">
-        <v>564.0214906197997</v>
+        <v>685.0334065225493</v>
       </c>
       <c r="S20" t="n">
-        <v>633.2375922995769</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="T20" t="n">
-        <v>707.4481717933593</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="U20" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="V20" t="n">
-        <v>730.5573952557698</v>
+        <v>730.55739525577</v>
       </c>
       <c r="W20" t="n">
-        <v>689.6767164338449</v>
+        <v>689.6767164338451</v>
       </c>
       <c r="X20" t="n">
         <v>626.6887139059208</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.9705567075483</v>
+        <v>540.9705567075484</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>237.2460814835412</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C21" t="n">
-        <v>237.2460814835412</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D21" t="n">
-        <v>237.2460814835412</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E21" t="n">
-        <v>175.5127064468024</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F21" t="n">
         <v>15.08499016404653</v>
@@ -5832,49 +5832,49 @@
         <v>15.08499016404653</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635129</v>
+        <v>53.07705719635138</v>
       </c>
       <c r="L21" t="n">
-        <v>170.4486221681696</v>
+        <v>170.4486221681697</v>
       </c>
       <c r="M21" t="n">
-        <v>352.1703666486677</v>
+        <v>352.1703666486678</v>
       </c>
       <c r="N21" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O21" t="n">
-        <v>670.5904072110304</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P21" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q21" t="n">
-        <v>754.2495082023264</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="R21" t="n">
-        <v>618.1801765352212</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="S21" t="n">
-        <v>618.1801765352212</v>
+        <v>556.8667975647002</v>
       </c>
       <c r="T21" t="n">
-        <v>618.1801765352212</v>
+        <v>366.3997500388601</v>
       </c>
       <c r="U21" t="n">
-        <v>618.1801765352212</v>
+        <v>366.3997500388601</v>
       </c>
       <c r="V21" t="n">
-        <v>427.7131290093812</v>
+        <v>175.9327025130201</v>
       </c>
       <c r="W21" t="n">
-        <v>427.7131290093812</v>
+        <v>175.9327025130201</v>
       </c>
       <c r="X21" t="n">
-        <v>427.7131290093812</v>
+        <v>175.9327025130201</v>
       </c>
       <c r="Y21" t="n">
-        <v>237.2460814835412</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340418</v>
+        <v>463.5335379340411</v>
       </c>
       <c r="C23" t="n">
-        <v>410.219491884428</v>
+        <v>410.2194918844273</v>
       </c>
       <c r="D23" t="n">
-        <v>369.4643728438561</v>
+        <v>369.4643728438554</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372147</v>
+        <v>294.662029137214</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8189404019093</v>
+        <v>187.8189404019086</v>
       </c>
       <c r="G23" t="n">
         <v>65.179298832673</v>
       </c>
       <c r="H23" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I23" t="n">
-        <v>70.94848926897386</v>
+        <v>70.94848926897384</v>
       </c>
       <c r="J23" t="n">
-        <v>103.6045232617089</v>
+        <v>257.6252425490496</v>
       </c>
       <c r="K23" t="n">
-        <v>290.2812765417849</v>
+        <v>257.6252425490496</v>
       </c>
       <c r="L23" t="n">
-        <v>337.0546147720789</v>
+        <v>304.3985807793437</v>
       </c>
       <c r="M23" t="n">
-        <v>417.9749254952307</v>
+        <v>385.3188915024955</v>
       </c>
       <c r="N23" t="n">
-        <v>493.3621754284688</v>
+        <v>460.7061414357337</v>
       </c>
       <c r="O23" t="n">
-        <v>680.0389287085449</v>
+        <v>494.9828250691633</v>
       </c>
       <c r="P23" t="n">
-        <v>680.0389287085449</v>
+        <v>494.9828250691633</v>
       </c>
       <c r="Q23" t="n">
-        <v>680.0389287085449</v>
+        <v>633.237592299577</v>
       </c>
       <c r="R23" t="n">
-        <v>680.0389287085449</v>
+        <v>633.237592299577</v>
       </c>
       <c r="S23" t="n">
-        <v>680.0389287085449</v>
+        <v>633.237592299577</v>
       </c>
       <c r="T23" t="n">
-        <v>754.2495082023272</v>
+        <v>707.4481717933594</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023272</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557706</v>
+        <v>730.5573952557701</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338457</v>
+        <v>689.6767164338451</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059215</v>
+        <v>626.6887139059208</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.970556707549</v>
+        <v>540.9705567075483</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>373.3154131506467</v>
+        <v>297.0898307891688</v>
       </c>
       <c r="C24" t="n">
-        <v>183.9031388836104</v>
+        <v>297.0898307891688</v>
       </c>
       <c r="D24" t="n">
-        <v>23.12302264464216</v>
+        <v>297.0898307891688</v>
       </c>
       <c r="E24" t="n">
-        <v>15.08499016404654</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="F24" t="n">
-        <v>15.08499016404654</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="G24" t="n">
-        <v>15.08499016404654</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="H24" t="n">
-        <v>15.08499016404654</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="I24" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J24" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635121</v>
+        <v>53.07705719635112</v>
       </c>
       <c r="L24" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M24" t="n">
-        <v>352.1703666486683</v>
+        <v>352.1703666486677</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287443</v>
+        <v>538.8471199287435</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110312</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023272</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q24" t="n">
-        <v>754.2495082023272</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="R24" t="n">
-        <v>754.2495082023272</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="S24" t="n">
-        <v>754.2495082023272</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="T24" t="n">
-        <v>754.2495082023272</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="U24" t="n">
-        <v>754.2495082023272</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="V24" t="n">
-        <v>563.7824606764869</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="W24" t="n">
-        <v>563.7824606764869</v>
+        <v>678.0239258408488</v>
       </c>
       <c r="X24" t="n">
-        <v>373.3154131506467</v>
+        <v>487.5568783150088</v>
       </c>
       <c r="Y24" t="n">
-        <v>373.3154131506467</v>
+        <v>297.0898307891688</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="M25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="N25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="O25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="P25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="R25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="S25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="T25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="U25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="V25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="W25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="X25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="26">
@@ -6209,28 +6209,28 @@
         <v>757.3316491962485</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471541</v>
+        <v>597.723633647154</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693958</v>
+        <v>406.0748730693955</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577068</v>
+        <v>198.6295596577064</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662741</v>
+        <v>63.72957914662695</v>
       </c>
       <c r="I26" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2683996847217</v>
+        <v>171.2683996847216</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9831015629837</v>
+        <v>375.9831015629836</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946301</v>
+        <v>634.0887466946299</v>
       </c>
       <c r="M26" t="n">
         <v>926.3413643191343</v>
@@ -6242,7 +6242,7 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P26" t="n">
-        <v>1655.109002436483</v>
+        <v>1655.109002436484</v>
       </c>
       <c r="Q26" t="n">
         <v>1777.662612870715</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>241.4606388098155</v>
+        <v>369.9125818833583</v>
       </c>
       <c r="C27" t="n">
-        <v>241.4606388098155</v>
+        <v>369.9125818833583</v>
       </c>
       <c r="D27" t="n">
-        <v>241.4606388098155</v>
+        <v>369.9125818833583</v>
       </c>
       <c r="E27" t="n">
-        <v>241.4606388098155</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="F27" t="n">
-        <v>81.03292252705961</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G27" t="n">
         <v>35.92166172201684</v>
@@ -6315,40 +6315,40 @@
         <v>373.007038206638</v>
       </c>
       <c r="N27" t="n">
-        <v>577.9583061004877</v>
+        <v>577.9583061004878</v>
       </c>
       <c r="O27" t="n">
-        <v>709.7015933827746</v>
+        <v>709.7015933827747</v>
       </c>
       <c r="P27" t="n">
-        <v>793.3606943740706</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.3606943740706</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="R27" t="n">
-        <v>793.3606943740706</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="S27" t="n">
-        <v>793.3606943740706</v>
+        <v>599.8380156942001</v>
       </c>
       <c r="T27" t="n">
-        <v>791.8422880327872</v>
+        <v>598.3196093529166</v>
       </c>
       <c r="U27" t="n">
-        <v>767.8411961126889</v>
+        <v>574.3185174328181</v>
       </c>
       <c r="V27" t="n">
-        <v>740.3846867719116</v>
+        <v>437.5902123342772</v>
       </c>
       <c r="W27" t="n">
-        <v>470.9861175022029</v>
+        <v>383.8148518201571</v>
       </c>
       <c r="X27" t="n">
-        <v>467.1013318744879</v>
+        <v>379.930066192442</v>
       </c>
       <c r="Y27" t="n">
-        <v>241.4606388098155</v>
+        <v>369.9125818833583</v>
       </c>
     </row>
     <row r="28">
@@ -6367,64 +6367,64 @@
         <v>35.92166172201684</v>
       </c>
       <c r="E28" t="n">
-        <v>106.9945888232665</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F28" t="n">
-        <v>106.9945888232665</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G28" t="n">
-        <v>106.9945888232665</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H28" t="n">
-        <v>154.162068733917</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I28" t="n">
-        <v>154.162068733917</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J28" t="n">
-        <v>154.162068733917</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K28" t="n">
-        <v>170.946497557055</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="L28" t="n">
-        <v>170.946497557055</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="M28" t="n">
-        <v>170.946497557055</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="N28" t="n">
-        <v>170.946497557055</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="O28" t="n">
-        <v>170.946497557055</v>
+        <v>112.8332968425545</v>
       </c>
       <c r="P28" t="n">
-        <v>170.946497557055</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="Q28" t="n">
-        <v>256.3464833623374</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="S28" t="n">
-        <v>244.0994937177466</v>
+        <v>244.0994937177472</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757521</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695578</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024697</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398195</v>
+        <v>48.17092928398212</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063873</v>
+        <v>39.63307197063882</v>
       </c>
       <c r="Y28" t="n">
         <v>35.92166172201684</v>
@@ -6455,22 +6455,22 @@
         <v>198.6295596577068</v>
       </c>
       <c r="H29" t="n">
-        <v>63.7295791466274</v>
+        <v>63.72957914662743</v>
       </c>
       <c r="I29" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2683996847217</v>
+        <v>171.2683996847219</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629836</v>
+        <v>375.9831015629838</v>
       </c>
       <c r="L29" t="n">
-        <v>634.08874669463</v>
+        <v>634.0887466946303</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191342</v>
+        <v>926.3413643191345</v>
       </c>
       <c r="N29" t="n">
         <v>1213.060921153725</v>
@@ -6479,19 +6479,19 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P29" t="n">
-        <v>1655.109002436483</v>
+        <v>1655.109002436484</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.662612870715</v>
+        <v>1777.662612870716</v>
       </c>
       <c r="R29" t="n">
         <v>1796.083086100842</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.898883169496</v>
+        <v>1781.898883169498</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.810566182448</v>
+        <v>1772.81056618245</v>
       </c>
       <c r="U29" t="n">
         <v>1735.75648745189</v>
@@ -6506,7 +6506,7 @@
         <v>1353.778677628126</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>375.5808296149709</v>
+        <v>346.9486715869028</v>
       </c>
       <c r="C30" t="n">
-        <v>186.1685553479346</v>
+        <v>346.9486715869028</v>
       </c>
       <c r="D30" t="n">
         <v>186.1685553479346</v>
@@ -6531,61 +6531,61 @@
         <v>186.1685553479346</v>
       </c>
       <c r="G30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K30" t="n">
-        <v>73.91372875432151</v>
+        <v>73.91372875432154</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2852937261398</v>
+        <v>191.2852937261399</v>
       </c>
       <c r="M30" t="n">
         <v>373.007038206638</v>
       </c>
       <c r="N30" t="n">
-        <v>577.9583061004877</v>
+        <v>577.9583061004878</v>
       </c>
       <c r="O30" t="n">
-        <v>709.7015933827746</v>
+        <v>709.7015933827747</v>
       </c>
       <c r="P30" t="n">
-        <v>793.3606943740706</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.3606943740706</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="R30" t="n">
-        <v>689.7571463479193</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="S30" t="n">
-        <v>496.2344676680487</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="T30" t="n">
-        <v>494.7160613267653</v>
+        <v>791.8422880327873</v>
       </c>
       <c r="U30" t="n">
-        <v>470.7149694066669</v>
+        <v>767.841196112689</v>
       </c>
       <c r="V30" t="n">
-        <v>443.2584600658897</v>
+        <v>524.7614780163231</v>
       </c>
       <c r="W30" t="n">
-        <v>389.4830995517696</v>
+        <v>360.8509415237016</v>
       </c>
       <c r="X30" t="n">
-        <v>385.5983139240546</v>
+        <v>356.9661558959866</v>
       </c>
       <c r="Y30" t="n">
-        <v>375.5808296149709</v>
+        <v>346.9486715869028</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E31" t="n">
-        <v>35.92166172201684</v>
+        <v>106.9945888232665</v>
       </c>
       <c r="F31" t="n">
-        <v>109.7163552271071</v>
+        <v>180.7892823283568</v>
       </c>
       <c r="G31" t="n">
-        <v>109.7163552271071</v>
+        <v>180.7892823283568</v>
       </c>
       <c r="H31" t="n">
-        <v>109.7163552271071</v>
+        <v>227.9567622390072</v>
       </c>
       <c r="I31" t="n">
-        <v>109.7163552271071</v>
+        <v>227.9567622390072</v>
       </c>
       <c r="J31" t="n">
-        <v>202.0220003637614</v>
+        <v>227.9567622390072</v>
       </c>
       <c r="K31" t="n">
-        <v>202.0220003637614</v>
+        <v>227.9567622390072</v>
       </c>
       <c r="L31" t="n">
-        <v>202.0220003637614</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="M31" t="n">
-        <v>202.0220003637614</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="N31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="O31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="P31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="S31" t="n">
-        <v>244.0994937177466</v>
+        <v>244.0994937177467</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757517</v>
       </c>
       <c r="U31" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695575</v>
       </c>
       <c r="V31" t="n">
         <v>125.7908590024694</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17092928398195</v>
+        <v>48.17092928398196</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063873</v>
+        <v>39.63307197063875</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="32">
@@ -6686,28 +6686,28 @@
         <v>597.7236336471539</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693956</v>
+        <v>406.0748730693955</v>
       </c>
       <c r="G32" t="n">
-        <v>198.6295596577067</v>
+        <v>198.6295596577065</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662736</v>
+        <v>63.72957914662709</v>
       </c>
       <c r="I32" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J32" t="n">
-        <v>171.2683996847218</v>
+        <v>171.2683996847215</v>
       </c>
       <c r="K32" t="n">
-        <v>375.9831015629838</v>
+        <v>375.9831015629834</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946306</v>
+        <v>634.0887466946299</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191348</v>
+        <v>926.3413643191342</v>
       </c>
       <c r="N32" t="n">
         <v>1213.060921153725</v>
@@ -6716,28 +6716,28 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P32" t="n">
-        <v>1655.109002436484</v>
+        <v>1655.109002436483</v>
       </c>
       <c r="Q32" t="n">
-        <v>1777.662612870716</v>
+        <v>1777.662612870715</v>
       </c>
       <c r="R32" t="n">
         <v>1796.083086100842</v>
       </c>
       <c r="S32" t="n">
-        <v>1781.898883169496</v>
+        <v>1781.898883169497</v>
       </c>
       <c r="T32" t="n">
-        <v>1772.810566182448</v>
+        <v>1772.810566182449</v>
       </c>
       <c r="U32" t="n">
-        <v>1735.756487451889</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V32" t="n">
-        <v>1627.25870266288</v>
+        <v>1627.258702662881</v>
       </c>
       <c r="W32" t="n">
-        <v>1501.572351998502</v>
+        <v>1501.572351998503</v>
       </c>
       <c r="X32" t="n">
         <v>1353.778677628125</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>196.7017779609851</v>
+        <v>444.9303288536798</v>
       </c>
       <c r="C33" t="n">
-        <v>196.7017779609851</v>
+        <v>444.9303288536798</v>
       </c>
       <c r="D33" t="n">
-        <v>35.92166172201684</v>
+        <v>444.9303288536798</v>
       </c>
       <c r="E33" t="n">
-        <v>35.92166172201684</v>
+        <v>271.3671249750943</v>
       </c>
       <c r="F33" t="n">
-        <v>35.92166172201684</v>
+        <v>271.3671249750943</v>
       </c>
       <c r="G33" t="n">
-        <v>35.92166172201684</v>
+        <v>271.3671249750943</v>
       </c>
       <c r="H33" t="n">
-        <v>35.92166172201684</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="I33" t="n">
         <v>35.92166172201684</v>
@@ -6780,49 +6780,49 @@
         <v>35.92166172201684</v>
       </c>
       <c r="K33" t="n">
-        <v>73.91372875432151</v>
+        <v>73.91372875432153</v>
       </c>
       <c r="L33" t="n">
-        <v>191.2852937261398</v>
+        <v>191.2852937261399</v>
       </c>
       <c r="M33" t="n">
         <v>373.007038206638</v>
       </c>
       <c r="N33" t="n">
-        <v>577.9583061004877</v>
+        <v>577.9583061004878</v>
       </c>
       <c r="O33" t="n">
-        <v>709.7015933827746</v>
+        <v>709.7015933827747</v>
       </c>
       <c r="P33" t="n">
-        <v>793.3606943740706</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="Q33" t="n">
-        <v>786.4450312622843</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="R33" t="n">
-        <v>786.4450312622843</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="S33" t="n">
-        <v>592.9223525824136</v>
+        <v>781.2071756623465</v>
       </c>
       <c r="T33" t="n">
-        <v>591.4039462411303</v>
+        <v>779.6887693210631</v>
       </c>
       <c r="U33" t="n">
-        <v>567.4028543210319</v>
+        <v>540.064468645376</v>
       </c>
       <c r="V33" t="n">
-        <v>539.9463449802547</v>
+        <v>512.6079593045987</v>
       </c>
       <c r="W33" t="n">
-        <v>486.1709844661347</v>
+        <v>458.8325987904786</v>
       </c>
       <c r="X33" t="n">
-        <v>482.2861988384198</v>
+        <v>454.9478131627636</v>
       </c>
       <c r="Y33" t="n">
-        <v>256.6455057737474</v>
+        <v>444.9303288536798</v>
       </c>
     </row>
     <row r="34">
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505081</v>
       </c>
       <c r="C34" t="n">
-        <v>35.92166172201684</v>
+        <v>117.9529149041506</v>
       </c>
       <c r="D34" t="n">
-        <v>35.92166172201684</v>
+        <v>185.5543980572994</v>
       </c>
       <c r="E34" t="n">
-        <v>35.92166172201684</v>
+        <v>256.627325158549</v>
       </c>
       <c r="F34" t="n">
-        <v>35.92166172201684</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="G34" t="n">
-        <v>35.92166172201684</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="H34" t="n">
-        <v>35.92166172201684</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="I34" t="n">
-        <v>35.92166172201684</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="J34" t="n">
-        <v>35.92166172201684</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="K34" t="n">
-        <v>35.92166172201684</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="L34" t="n">
-        <v>79.89883730019992</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="M34" t="n">
-        <v>266.2898381224431</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="N34" t="n">
-        <v>266.2898381224431</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="O34" t="n">
-        <v>266.2898381224431</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="P34" t="n">
-        <v>266.2898381224431</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.2898381224431</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224431</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="S34" t="n">
-        <v>244.0994937177463</v>
+        <v>244.0994937177468</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757513</v>
+        <v>233.7015767757518</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695572</v>
+        <v>157.7525140695575</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024692</v>
+        <v>125.7908590024695</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398184</v>
+        <v>48.17092928398201</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063868</v>
+        <v>39.63307197063877</v>
       </c>
       <c r="Y34" t="n">
         <v>35.92166172201684</v>
@@ -6935,37 +6935,37 @@
         <v>20.83667155797031</v>
       </c>
       <c r="J35" t="n">
-        <v>20.83667155797031</v>
+        <v>174.7403346447168</v>
       </c>
       <c r="K35" t="n">
-        <v>20.83667155797031</v>
+        <v>432.5941451745994</v>
       </c>
       <c r="L35" t="n">
-        <v>113.2444431925019</v>
+        <v>479.3674834048934</v>
       </c>
       <c r="M35" t="n">
-        <v>194.1647539156537</v>
+        <v>560.2877941280452</v>
       </c>
       <c r="N35" t="n">
-        <v>452.0185644455363</v>
+        <v>635.6750440612834</v>
       </c>
       <c r="O35" t="n">
-        <v>486.2952480789659</v>
+        <v>669.951727694713</v>
       </c>
       <c r="P35" t="n">
-        <v>740.7411120019989</v>
+        <v>669.951727694713</v>
       </c>
       <c r="Q35" t="n">
-        <v>921.3014956112869</v>
+        <v>850.512111304001</v>
       </c>
       <c r="R35" t="n">
-        <v>997.7287420164702</v>
+        <v>926.9393577091843</v>
       </c>
       <c r="S35" t="n">
-        <v>1041.833577898516</v>
+        <v>971.0441935912297</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.833577898516</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="U35" t="n">
         <v>1041.833577898516</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>382.598236186217</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="C36" t="n">
-        <v>194.3998754365558</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="D36" t="n">
-        <v>194.3998754365558</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="E36" t="n">
         <v>20.83667155797031</v>
@@ -7017,7 +7017,7 @@
         <v>20.83667155797031</v>
       </c>
       <c r="K36" t="n">
-        <v>58.82873859027498</v>
+        <v>58.82873859027499</v>
       </c>
       <c r="L36" t="n">
         <v>176.2003035620933</v>
@@ -7026,40 +7026,40 @@
         <v>357.9220480425914</v>
       </c>
       <c r="N36" t="n">
-        <v>562.8733159364411</v>
+        <v>562.8733159364413</v>
       </c>
       <c r="O36" t="n">
-        <v>694.6166032187281</v>
+        <v>694.6166032187282</v>
       </c>
       <c r="P36" t="n">
-        <v>778.2757042100241</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.2757042100241</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="R36" t="n">
-        <v>778.2757042100241</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="S36" t="n">
-        <v>778.2757042100241</v>
+        <v>720.575568386256</v>
       </c>
       <c r="T36" t="n">
-        <v>561.1340891131521</v>
+        <v>503.433953289384</v>
       </c>
       <c r="U36" t="n">
-        <v>561.1340891131521</v>
+        <v>503.433953289384</v>
       </c>
       <c r="V36" t="n">
-        <v>561.1340891131521</v>
+        <v>503.433953289384</v>
       </c>
       <c r="W36" t="n">
-        <v>561.1340891131521</v>
+        <v>240.3446659412739</v>
       </c>
       <c r="X36" t="n">
-        <v>561.1340891131521</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="Y36" t="n">
-        <v>561.1340891131521</v>
+        <v>20.83667155797031</v>
       </c>
     </row>
     <row r="37">
@@ -7081,7 +7081,7 @@
         <v>20.83667155797031</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="G37" t="n">
         <v>56.03657271633964</v>
@@ -7154,13 +7154,13 @@
         <v>544.0768043248357</v>
       </c>
       <c r="D38" t="n">
-        <v>477.700559074967</v>
+        <v>477.7005590749671</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590288</v>
+        <v>377.2770891590289</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144266</v>
+        <v>244.8128742144267</v>
       </c>
       <c r="G38" t="n">
         <v>96.55210643589356</v>
@@ -7169,40 +7169,40 @@
         <v>20.83667155797031</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83667155797031</v>
+        <v>51.58890486516584</v>
       </c>
       <c r="J38" t="n">
-        <v>20.83667155797031</v>
+        <v>244.9424160029271</v>
       </c>
       <c r="K38" t="n">
-        <v>274.8119247714272</v>
+        <v>250.127584577955</v>
       </c>
       <c r="L38" t="n">
-        <v>321.5852630017213</v>
+        <v>296.900922808249</v>
       </c>
       <c r="M38" t="n">
-        <v>402.505573724873</v>
+        <v>377.8212335314008</v>
       </c>
       <c r="N38" t="n">
-        <v>477.8928236581112</v>
+        <v>635.6750440612834</v>
       </c>
       <c r="O38" t="n">
-        <v>735.7466341879938</v>
+        <v>669.951727694713</v>
       </c>
       <c r="P38" t="n">
-        <v>735.7466341879938</v>
+        <v>669.951727694713</v>
       </c>
       <c r="Q38" t="n">
-        <v>916.3070177972818</v>
+        <v>850.512111304001</v>
       </c>
       <c r="R38" t="n">
-        <v>992.7342642024651</v>
+        <v>926.9393577091843</v>
       </c>
       <c r="S38" t="n">
-        <v>992.7342642024651</v>
+        <v>971.0441935912297</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.833577898516</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="U38" t="n">
         <v>1041.833577898516</v>
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>371.0290620639748</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="C39" t="n">
-        <v>181.6167877969386</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="D39" t="n">
         <v>20.83667155797031</v>
@@ -7254,7 +7254,7 @@
         <v>20.83667155797031</v>
       </c>
       <c r="K39" t="n">
-        <v>58.82873859027498</v>
+        <v>58.82873859027499</v>
       </c>
       <c r="L39" t="n">
         <v>176.2003035620933</v>
@@ -7263,40 +7263,40 @@
         <v>357.9220480425914</v>
       </c>
       <c r="N39" t="n">
-        <v>562.8733159364411</v>
+        <v>562.8733159364413</v>
       </c>
       <c r="O39" t="n">
-        <v>694.6166032187281</v>
+        <v>694.6166032187282</v>
       </c>
       <c r="P39" t="n">
-        <v>778.2757042100241</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.2757042100241</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="R39" t="n">
-        <v>778.2757042100241</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="S39" t="n">
-        <v>634.1183494120849</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="T39" t="n">
-        <v>634.1183494120849</v>
+        <v>561.1340891131522</v>
       </c>
       <c r="U39" t="n">
-        <v>634.1183494120849</v>
+        <v>321.5097884374651</v>
       </c>
       <c r="V39" t="n">
-        <v>634.1183494120849</v>
+        <v>321.5097884374651</v>
       </c>
       <c r="W39" t="n">
-        <v>371.0290620639748</v>
+        <v>240.3446659412739</v>
       </c>
       <c r="X39" t="n">
-        <v>371.0290620639748</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="Y39" t="n">
-        <v>371.0290620639748</v>
+        <v>20.83667155797031</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="C40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="D40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="E40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="F40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="G40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="K40" t="n">
         <v>56.03657271633964</v>
@@ -7375,7 +7375,7 @@
         <v>20.83667155797031</v>
       </c>
       <c r="Y40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.5041758676707</v>
+        <v>818.5041758676713</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1923754002145</v>
+        <v>708.192375400215</v>
       </c>
       <c r="D41" t="n">
-        <v>610.4395019418002</v>
+        <v>610.4395019418009</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6394038173164</v>
+        <v>478.6394038173171</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7985606641687</v>
+        <v>314.7985606641691</v>
       </c>
       <c r="G41" t="n">
         <v>135.1611646770912</v>
@@ -7409,28 +7409,28 @@
         <v>28.06910159062234</v>
       </c>
       <c r="J41" t="n">
-        <v>28.06910159062234</v>
+        <v>190.6703794211881</v>
       </c>
       <c r="K41" t="n">
-        <v>260.0383433367451</v>
+        <v>422.6396211673109</v>
       </c>
       <c r="L41" t="n">
-        <v>545.3985283362523</v>
+        <v>469.4129593976049</v>
       </c>
       <c r="M41" t="n">
-        <v>754.135972517706</v>
+        <v>604.3278222156131</v>
       </c>
       <c r="N41" t="n">
-        <v>829.5232224509442</v>
+        <v>918.3019189180645</v>
       </c>
       <c r="O41" t="n">
-        <v>1102.386752853587</v>
+        <v>952.5786025514942</v>
       </c>
       <c r="P41" t="n">
-        <v>1326.080383469425</v>
+        <v>1176.272233167332</v>
       </c>
       <c r="Q41" t="n">
-        <v>1326.080383469425</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="R41" t="n">
         <v>1371.755396567412</v>
@@ -7442,19 +7442,19 @@
         <v>1403.455079531117</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.208918225168</v>
+        <v>1394.208918225169</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.519050860769</v>
+        <v>1313.51905086077</v>
       </c>
       <c r="W41" t="n">
         <v>1215.640617621002</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.654860675235</v>
+        <v>1095.654860675236</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.9389490590204</v>
+        <v>952.9389490590208</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>538.6892083793828</v>
+        <v>391.0445797362441</v>
       </c>
       <c r="C42" t="n">
-        <v>349.2769341123465</v>
+        <v>201.6323054692079</v>
       </c>
       <c r="D42" t="n">
-        <v>188.4968178733783</v>
+        <v>201.6323054692079</v>
       </c>
       <c r="E42" t="n">
-        <v>188.4968178733783</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="F42" t="n">
         <v>28.06910159062234</v>
@@ -7491,7 +7491,7 @@
         <v>28.06910159062234</v>
       </c>
       <c r="K42" t="n">
-        <v>66.06116862292701</v>
+        <v>66.06116862292703</v>
       </c>
       <c r="L42" t="n">
         <v>183.4327335947453</v>
@@ -7500,40 +7500,40 @@
         <v>365.1544780752434</v>
       </c>
       <c r="N42" t="n">
-        <v>570.1057459690932</v>
+        <v>570.1057459690933</v>
       </c>
       <c r="O42" t="n">
-        <v>701.8490332513801</v>
+        <v>701.8490332513802</v>
       </c>
       <c r="P42" t="n">
-        <v>785.5081342426761</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.5081342426761</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="R42" t="n">
-        <v>785.5081342426761</v>
+        <v>649.438802575571</v>
       </c>
       <c r="S42" t="n">
-        <v>785.5081342426761</v>
+        <v>649.438802575571</v>
       </c>
       <c r="T42" t="n">
-        <v>785.5081342426761</v>
+        <v>649.438802575571</v>
       </c>
       <c r="U42" t="n">
-        <v>785.5081342426761</v>
+        <v>649.438802575571</v>
       </c>
       <c r="V42" t="n">
-        <v>564.6566514688923</v>
+        <v>417.0120228257536</v>
       </c>
       <c r="W42" t="n">
-        <v>538.6892083793828</v>
+        <v>391.0445797362441</v>
       </c>
       <c r="X42" t="n">
-        <v>538.6892083793828</v>
+        <v>391.0445797362441</v>
       </c>
       <c r="Y42" t="n">
-        <v>538.6892083793828</v>
+        <v>391.0445797362441</v>
       </c>
     </row>
     <row r="43">
@@ -7573,37 +7573,37 @@
         <v>28.06910159062234</v>
       </c>
       <c r="L43" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="M43" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="N43" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="O43" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="P43" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.1759968085604</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="R43" t="n">
-        <v>130.1759968085604</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1759968085604</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="T43" t="n">
-        <v>130.1759968085604</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="U43" t="n">
-        <v>82.03485152697675</v>
+        <v>82.03485152697669</v>
       </c>
       <c r="V43" t="n">
-        <v>77.88111388449926</v>
+        <v>77.88111388449923</v>
       </c>
       <c r="W43" t="n">
         <v>28.06910159062234</v>
@@ -7646,34 +7646,34 @@
         <v>28.06910159062234</v>
       </c>
       <c r="J44" t="n">
-        <v>190.670379421188</v>
+        <v>190.6703794211881</v>
       </c>
       <c r="K44" t="n">
-        <v>422.6396211673108</v>
+        <v>422.6396211673109</v>
       </c>
       <c r="L44" t="n">
-        <v>704.9153447582592</v>
+        <v>469.4129593976049</v>
       </c>
       <c r="M44" t="n">
-        <v>785.8356554814109</v>
+        <v>550.3332701207568</v>
       </c>
       <c r="N44" t="n">
-        <v>1099.809752183862</v>
+        <v>864.3073668232082</v>
       </c>
       <c r="O44" t="n">
-        <v>1134.086435817292</v>
+        <v>1137.170897225851</v>
       </c>
       <c r="P44" t="n">
-        <v>1357.780066433129</v>
+        <v>1176.272233167332</v>
       </c>
       <c r="Q44" t="n">
-        <v>1357.780066433129</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="R44" t="n">
-        <v>1403.455079531117</v>
+        <v>1371.755396567412</v>
       </c>
       <c r="S44" t="n">
-        <v>1403.455079531117</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="T44" t="n">
         <v>1403.455079531117</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>339.0961114555083</v>
+        <v>516.4609730568008</v>
       </c>
       <c r="C45" t="n">
-        <v>339.0961114555083</v>
+        <v>516.4609730568008</v>
       </c>
       <c r="D45" t="n">
-        <v>178.3159952165401</v>
+        <v>362.0600217519638</v>
       </c>
       <c r="E45" t="n">
-        <v>178.3159952165401</v>
+        <v>188.4968178733783</v>
       </c>
       <c r="F45" t="n">
-        <v>178.3159952165401</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="G45" t="n">
         <v>28.06910159062234</v>
@@ -7728,7 +7728,7 @@
         <v>28.06910159062234</v>
       </c>
       <c r="K45" t="n">
-        <v>66.06116862292701</v>
+        <v>66.06116862292703</v>
       </c>
       <c r="L45" t="n">
         <v>183.4327335947453</v>
@@ -7737,40 +7737,40 @@
         <v>365.1544780752434</v>
       </c>
       <c r="N45" t="n">
-        <v>570.1057459690932</v>
+        <v>570.1057459690933</v>
       </c>
       <c r="O45" t="n">
-        <v>701.8490332513801</v>
+        <v>701.8490332513802</v>
       </c>
       <c r="P45" t="n">
-        <v>785.5081342426761</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="Q45" t="n">
-        <v>778.5924711308897</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="R45" t="n">
-        <v>642.5231394637846</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="S45" t="n">
-        <v>642.5231394637846</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="T45" t="n">
-        <v>608.494680725217</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="U45" t="n">
-        <v>608.494680725217</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="V45" t="n">
-        <v>608.494680725217</v>
+        <v>542.4284161463103</v>
       </c>
       <c r="W45" t="n">
-        <v>339.0961114555083</v>
+        <v>516.4609730568008</v>
       </c>
       <c r="X45" t="n">
-        <v>339.0961114555083</v>
+        <v>516.4609730568008</v>
       </c>
       <c r="Y45" t="n">
-        <v>339.0961114555083</v>
+        <v>516.4609730568008</v>
       </c>
     </row>
     <row r="46">
@@ -7804,13 +7804,13 @@
         <v>28.06910159062234</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="M46" t="n">
         <v>130.1759968085603</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1547529041439</v>
+        <v>292.1547529041441</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1547529041439</v>
+        <v>292.1547529041441</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841511</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9255,7 +9255,7 @@
         <v>292.1547529041439</v>
       </c>
       <c r="O18" t="n">
-        <v>255.2227828913209</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9480,7 +9480,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841511</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9723,10 +9723,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>301.7768813100006</v>
+        <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1547529041441</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165.3185185904092</v>
+        <v>195.7575910532781</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>171.8758480566236</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.442510317672</v>
       </c>
       <c r="E11" t="n">
-        <v>4.586885686499357</v>
+        <v>193.1492627370809</v>
       </c>
       <c r="F11" t="n">
-        <v>224.8696003154583</v>
+        <v>224.8696003154582</v>
       </c>
       <c r="G11" t="n">
-        <v>240.5081876210496</v>
+        <v>103.2099567966739</v>
       </c>
       <c r="H11" t="n">
-        <v>168.6883080494462</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.66716559384204</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718777</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550874</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065508</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673105</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>142.5501342845968</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5668145012117</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.9559180938947</v>
+        <v>203.9559180938946</v>
       </c>
     </row>
     <row r="12">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.195214002696531</v>
+        <v>195.7575910532782</v>
       </c>
       <c r="C14" t="n">
-        <v>171.8758480566236</v>
+        <v>171.8758480566237</v>
       </c>
       <c r="D14" t="n">
         <v>159.4425103176721</v>
@@ -23507,13 +23507,13 @@
         <v>36.30722326487668</v>
       </c>
       <c r="G14" t="n">
-        <v>240.5081876210496</v>
+        <v>51.94581057046801</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494462</v>
+        <v>58.37345830663717</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384201</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718773</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550874</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065508</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673105</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.5501342845968</v>
+        <v>142.5501342845969</v>
       </c>
       <c r="W14" t="n">
         <v>159.5668145012117</v>
       </c>
       <c r="X14" t="n">
-        <v>15.36732326399874</v>
+        <v>181.453064970151</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.39354104331309</v>
+        <v>203.9559180938947</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913012.8181777794</v>
+        <v>913012.8181777796</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913012.8181777796</v>
+        <v>913012.8181777793</v>
       </c>
     </row>
     <row r="7">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>551207.4969852875</v>
+        <v>551207.4969852873</v>
       </c>
       <c r="C2" t="n">
+        <v>551207.4969852873</v>
+      </c>
+      <c r="D2" t="n">
         <v>551207.4969852874</v>
       </c>
-      <c r="D2" t="n">
-        <v>551207.4969852872</v>
-      </c>
       <c r="E2" t="n">
-        <v>474993.8056377992</v>
+        <v>474993.8056377998</v>
       </c>
       <c r="F2" t="n">
-        <v>474993.8056377992</v>
+        <v>474993.8056377991</v>
       </c>
       <c r="G2" t="n">
-        <v>552324.0930365856</v>
+        <v>552324.0930365853</v>
       </c>
       <c r="H2" t="n">
-        <v>552324.0930365854</v>
+        <v>552324.0930365853</v>
       </c>
       <c r="I2" t="n">
         <v>552324.093036585</v>
@@ -26341,19 +26341,19 @@
         <v>552324.0930365853</v>
       </c>
       <c r="L2" t="n">
+        <v>552324.0930365853</v>
+      </c>
+      <c r="M2" t="n">
+        <v>552324.0930365849</v>
+      </c>
+      <c r="N2" t="n">
+        <v>552324.0930365847</v>
+      </c>
+      <c r="O2" t="n">
+        <v>552324.0930365848</v>
+      </c>
+      <c r="P2" t="n">
         <v>552324.093036585</v>
-      </c>
-      <c r="M2" t="n">
-        <v>552324.093036585</v>
-      </c>
-      <c r="N2" t="n">
-        <v>552324.0930365849</v>
-      </c>
-      <c r="O2" t="n">
-        <v>552324.0930365844</v>
-      </c>
-      <c r="P2" t="n">
-        <v>552324.0930365849</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>280312.8421842063</v>
+        <v>280312.8421842064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400478</v>
+        <v>95275.95397400481</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.95397400482</v>
+        <v>95275.95397400478</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145963</v>
+        <v>46874.1601414597</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26439,19 +26439,19 @@
         <v>395809.2702669877</v>
       </c>
       <c r="J4" t="n">
-        <v>396695.6540483334</v>
+        <v>396695.6540483332</v>
       </c>
       <c r="K4" t="n">
-        <v>396695.6540483334</v>
+        <v>396695.6540483333</v>
       </c>
       <c r="L4" t="n">
-        <v>396695.6540483334</v>
+        <v>396695.6540483333</v>
       </c>
       <c r="M4" t="n">
-        <v>395870.6270705321</v>
+        <v>395870.627070532</v>
       </c>
       <c r="N4" t="n">
-        <v>395870.6270705321</v>
+        <v>395870.627070532</v>
       </c>
       <c r="O4" t="n">
         <v>396257.8704432698</v>
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>28663.94612301864</v>
+        <v>28663.94612301865</v>
       </c>
       <c r="F5" t="n">
         <v>28663.94612301864</v>
       </c>
       <c r="G5" t="n">
-        <v>38676.1388413194</v>
+        <v>38676.13884131941</v>
       </c>
       <c r="H5" t="n">
-        <v>38676.1388413194</v>
+        <v>38676.13884131941</v>
       </c>
       <c r="I5" t="n">
         <v>38676.13884131941</v>
@@ -26494,10 +26494,10 @@
         <v>47453.77647951488</v>
       </c>
       <c r="K5" t="n">
-        <v>47453.77647951488</v>
+        <v>47453.7764795149</v>
       </c>
       <c r="L5" t="n">
-        <v>47453.7764795149</v>
+        <v>47453.77647951489</v>
       </c>
       <c r="M5" t="n">
         <v>40915.013666005</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82057.25836397227</v>
+        <v>82052.79197976684</v>
       </c>
       <c r="C6" t="n">
-        <v>82057.2583639721</v>
+        <v>82052.79197976679</v>
       </c>
       <c r="D6" t="n">
-        <v>82057.25836397192</v>
+        <v>82052.79197976696</v>
       </c>
       <c r="E6" t="n">
-        <v>-159329.2765317061</v>
+        <v>-159638.5976813008</v>
       </c>
       <c r="F6" t="n">
-        <v>120983.5656525002</v>
+        <v>120674.244502905</v>
       </c>
       <c r="G6" t="n">
-        <v>22562.72995427369</v>
+        <v>22562.72995427328</v>
       </c>
       <c r="H6" t="n">
-        <v>117838.6839282782</v>
+        <v>117838.6839282781</v>
       </c>
       <c r="I6" t="n">
         <v>117838.6839282779</v>
       </c>
       <c r="J6" t="n">
-        <v>-35470.34101560437</v>
+        <v>-35470.34101560425</v>
       </c>
       <c r="K6" t="n">
-        <v>108174.662508737</v>
+        <v>108174.6625087371</v>
       </c>
       <c r="L6" t="n">
-        <v>12898.70853473188</v>
+        <v>12898.70853473229</v>
       </c>
       <c r="M6" t="n">
-        <v>68664.29215858836</v>
+        <v>68664.29215858824</v>
       </c>
       <c r="N6" t="n">
-        <v>115538.4523000478</v>
+        <v>115538.4523000477</v>
       </c>
       <c r="O6" t="n">
-        <v>39862.50402518961</v>
+        <v>39862.50402518996</v>
       </c>
       <c r="P6" t="n">
-        <v>112265.9858417902</v>
+        <v>112265.9858417903</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="L2" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="M2" t="n">
         <v>272.0596768448573</v>
@@ -26808,13 +26808,13 @@
         <v>188.5623770505816</v>
       </c>
       <c r="I4" t="n">
-        <v>188.5623770505818</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="J4" t="n">
         <v>449.0207715252105</v>
       </c>
       <c r="K4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="L4" t="n">
         <v>449.0207715252105</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.37203420052677</v>
+        <v>94.37203420052674</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>119.094942467506</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682454</v>
+        <v>58.59270017682462</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4583944746287</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.37203420052677</v>
+        <v>94.37203420052674</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28111,10 +28111,10 @@
         <v>178.3296493245552</v>
       </c>
       <c r="J11" t="n">
-        <v>76.75309993802782</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K11" t="n">
-        <v>83.92104128266567</v>
+        <v>160.0433975822946</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,16 +28123,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4136397442805</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>153.9394642895416</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.67545097688966</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="R11" t="n">
         <v>178.3296493245552</v>
@@ -28181,10 +28181,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H12" t="n">
-        <v>98.23514194381103</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I12" t="n">
         <v>107.3572203790713</v>
@@ -28226,16 +28226,16 @@
         <v>178.3296493245552</v>
       </c>
       <c r="V12" t="n">
+        <v>52.08654386482061</v>
+      </c>
+      <c r="W12" t="n">
+        <v>134.4010554915214</v>
+      </c>
+      <c r="X12" t="n">
+        <v>28.75053738888897</v>
+      </c>
+      <c r="Y12" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="W12" t="n">
-        <v>178.3296493245552</v>
-      </c>
-      <c r="X12" t="n">
-        <v>178.3296493245552</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>34.82190908344401</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.3296493245552</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>178.3296493245552</v>
@@ -28254,16 +28254,16 @@
         <v>178.3296493245552</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G13" t="n">
         <v>168.7006242014745</v>
       </c>
       <c r="H13" t="n">
-        <v>178.3296493245552</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I13" t="n">
         <v>164.8484353357569</v>
@@ -28275,22 +28275,22 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L13" t="n">
+        <v>32.12940745055725</v>
+      </c>
+      <c r="M13" t="n">
+        <v>25.1932384637467</v>
+      </c>
+      <c r="N13" t="n">
         <v>178.3296493245552</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
+        <v>37.45757960830503</v>
+      </c>
+      <c r="P13" t="n">
+        <v>175.5795515905738</v>
+      </c>
+      <c r="Q13" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="N13" t="n">
-        <v>16.4970922298436</v>
-      </c>
-      <c r="O13" t="n">
-        <v>37.45757960830504</v>
-      </c>
-      <c r="P13" t="n">
-        <v>152.0376953321921</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>127.204364743505</v>
       </c>
       <c r="R13" t="n">
         <v>178.3296493245552</v>
@@ -28348,25 +28348,25 @@
         <v>178.3296493245552</v>
       </c>
       <c r="J14" t="n">
-        <v>76.75309993802782</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K14" t="n">
-        <v>6.684449518273162</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>106.8246894514384</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>153.9394642895416</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>60.08735328984378</v>
+        <v>160.0433975822949</v>
       </c>
       <c r="Q14" t="n">
         <v>178.3296493245552</v>
@@ -28415,7 +28415,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7444246896586</v>
@@ -28424,7 +28424,7 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>52.45818464705464</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668488</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>134.7086383504341</v>
@@ -28460,19 +28460,19 @@
         <v>178.3296493245552</v>
       </c>
       <c r="U15" t="n">
-        <v>178.3296493245552</v>
+        <v>48.66568061834855</v>
       </c>
       <c r="V15" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="W15" t="n">
-        <v>78.14220652642999</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X15" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="Y15" t="n">
-        <v>58.28502888645153</v>
+        <v>43.14184253434439</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C16" t="n">
         <v>178.3296493245552</v>
@@ -28494,7 +28494,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G16" t="n">
         <v>178.3296493245552</v>
@@ -28506,28 +28506,28 @@
         <v>178.3296493245552</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2289512774728</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K16" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="L16" t="n">
+        <v>32.12940745055725</v>
+      </c>
+      <c r="M16" t="n">
         <v>178.3296493245552</v>
       </c>
-      <c r="M16" t="n">
-        <v>25.19323846374671</v>
-      </c>
       <c r="N16" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O16" t="n">
-        <v>120.7785306194223</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P16" t="n">
         <v>58.46036931460877</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.3296493245552</v>
+        <v>156.4982375360845</v>
       </c>
       <c r="R16" t="n">
         <v>178.3296493245552</v>
@@ -28582,40 +28582,40 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I17" t="n">
-        <v>251.271899388653</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J17" t="n">
         <v>76.75309993802782</v>
       </c>
       <c r="K17" t="n">
-        <v>6.684449518273176</v>
+        <v>6.684449518273155</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>106.8246894514384</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>153.9394642895416</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.04365268017747</v>
+        <v>15.04365268017745</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2378280274713</v>
+        <v>245.4097000958768</v>
       </c>
       <c r="R17" t="n">
-        <v>194.8604380517429</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S17" t="n">
-        <v>227.5093375700639</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4644104852103</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="U17" t="n">
         <v>297.4245917920612</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28649,7 +28649,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28664,7 +28664,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,28 +28685,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668495</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S18" t="n">
-        <v>3.025074842490284</v>
+        <v>3.025074842490255</v>
       </c>
       <c r="T18" t="n">
         <v>214.9701989459033</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280576689302</v>
+        <v>48.66568061834855</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>133.867870336973</v>
       </c>
       <c r="W18" t="n">
-        <v>260.6345310577432</v>
+        <v>78.14220652642996</v>
       </c>
       <c r="X18" t="n">
-        <v>28.750537388889</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28752,22 +28752,22 @@
         <v>32.12940745055725</v>
       </c>
       <c r="M19" t="n">
-        <v>25.19323846374671</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N19" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O19" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P19" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q19" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R19" t="n">
-        <v>203.4231839810569</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S19" t="n">
         <v>235.4354176286827</v>
@@ -28822,10 +28822,10 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J20" t="n">
-        <v>100.3527488800973</v>
+        <v>265.3154769886095</v>
       </c>
       <c r="K20" t="n">
-        <v>6.684449518273176</v>
+        <v>6.684449518273155</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,22 +28840,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.04365268017747</v>
+        <v>74.87933679960926</v>
       </c>
       <c r="Q20" t="n">
         <v>278.2378280274713</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4245917920612</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S20" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4245917920612</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4245917920612</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V20" t="n">
         <v>297.4245917920612</v>
@@ -28886,10 +28886,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>110.7115305534283</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7444246896586</v>
@@ -28922,22 +28922,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668495</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5874518930719</v>
+        <v>3.025074842490255</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9701989459033</v>
+        <v>26.40782189532166</v>
       </c>
       <c r="U21" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V21" t="n">
-        <v>52.08654386482064</v>
+        <v>52.08654386482061</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -28946,7 +28946,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.82190908344401</v>
+        <v>64.14505090854178</v>
       </c>
     </row>
     <row r="22">
@@ -28989,22 +28989,22 @@
         <v>32.12940745055725</v>
       </c>
       <c r="M22" t="n">
-        <v>25.19323846374671</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N22" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O22" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P22" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q22" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R22" t="n">
-        <v>203.4231839810569</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S22" t="n">
         <v>235.4354176286827</v>
@@ -29059,10 +29059,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J23" t="n">
-        <v>109.7389928599824</v>
+        <v>265.3154769886095</v>
       </c>
       <c r="K23" t="n">
-        <v>195.246826568855</v>
+        <v>6.684449518273155</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29074,13 +29074,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>153.9394642895418</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.04365268017747</v>
+        <v>15.04365268017745</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.67545097688966</v>
+        <v>229.3267310076106</v>
       </c>
       <c r="R23" t="n">
         <v>194.8604380517429</v>
@@ -29092,7 +29092,7 @@
         <v>297.4245917920612</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505146112862</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="V23" t="n">
         <v>297.4245917920612</v>
@@ -29117,13 +29117,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>163.86991968401</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29135,7 +29135,7 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>52.45818464705464</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668495</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.7086383504341</v>
@@ -29174,16 +29174,16 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V24" t="n">
-        <v>52.08654386482044</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>198.0877635198171</v>
       </c>
       <c r="X24" t="n">
-        <v>28.7505373888888</v>
+        <v>28.75053738888897</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>34.82190908344398</v>
       </c>
     </row>
     <row r="25">
@@ -29226,22 +29226,22 @@
         <v>32.12940745055725</v>
       </c>
       <c r="M25" t="n">
-        <v>25.19323846374671</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N25" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O25" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P25" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q25" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R25" t="n">
-        <v>203.4231839810569</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S25" t="n">
         <v>235.4354176286827</v>
@@ -29360,13 +29360,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>104.0842764926662</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H27" t="n">
         <v>125.7337882414754</v>
@@ -29396,13 +29396,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668495</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R27" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>213.4669766680327</v>
@@ -29411,16 +29411,16 @@
         <v>213.4669766680327</v>
       </c>
       <c r="V27" t="n">
+        <v>105.2878988678468</v>
+      </c>
+      <c r="W27" t="n">
         <v>213.4669766680327</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="28">
@@ -29439,7 +29439,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4669766680327</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
@@ -29448,7 +29448,7 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H28" t="n">
-        <v>213.4669766680327</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I28" t="n">
         <v>164.8484353357569</v>
@@ -29457,28 +29457,28 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K28" t="n">
-        <v>83.96643706409084</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L28" t="n">
         <v>32.12940745055725</v>
       </c>
       <c r="M28" t="n">
-        <v>25.19323846374671</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N28" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O28" t="n">
-        <v>37.45757960830504</v>
+        <v>115.1460999320805</v>
       </c>
       <c r="P28" t="n">
-        <v>58.46036931460878</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Q28" t="n">
-        <v>213.4669766680327</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R28" t="n">
-        <v>213.4669766680327</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S28" t="n">
         <v>213.4669766680327</v>
@@ -29591,10 +29591,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29633,13 +29633,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668495</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R30" t="n">
-        <v>32.14112580454434</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T30" t="n">
         <v>213.4669766680327</v>
@@ -29648,10 +29648,10 @@
         <v>213.4669766680327</v>
       </c>
       <c r="V30" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>213.4669766680327</v>
+        <v>104.4331524493163</v>
       </c>
       <c r="X30" t="n">
         <v>213.4669766680327</v>
@@ -29676,7 +29676,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="F31" t="n">
         <v>213.4669766680327</v>
@@ -29685,37 +29685,37 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H31" t="n">
-        <v>165.8230575663656</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="I31" t="n">
         <v>164.8484353357569</v>
       </c>
       <c r="J31" t="n">
-        <v>213.4669766680327</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K31" t="n">
         <v>67.01246855587064</v>
       </c>
       <c r="L31" t="n">
-        <v>32.12940745055725</v>
+        <v>70.849686120695</v>
       </c>
       <c r="M31" t="n">
-        <v>25.19323846374671</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N31" t="n">
-        <v>81.41410006689624</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O31" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P31" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q31" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R31" t="n">
-        <v>203.4231839810569</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S31" t="n">
         <v>213.4669766680327</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="C32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="D32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="E32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="F32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="G32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="H32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="I32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="J32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="K32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="L32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="M32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="N32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="O32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="P32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="R32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="33">
@@ -29825,16 +29825,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>117.406203863031</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29843,10 +29843,10 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H33" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>52.45818464705464</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R33" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>179.5554683684649</v>
       </c>
       <c r="T33" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U33" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W33" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X33" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="34">
@@ -29904,19 +29904,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>148.6869963233908</v>
       </c>
       <c r="G34" t="n">
         <v>168.7006242014745</v>
@@ -29934,46 +29934,46 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L34" t="n">
-        <v>76.55079692346945</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M34" t="n">
-        <v>213.4669766680328</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N34" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O34" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P34" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q34" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4231839810569</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S34" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T34" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U34" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V34" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W34" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X34" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="35">
@@ -30007,25 +30007,25 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J35" t="n">
-        <v>76.75309993802782</v>
+        <v>232.211345480196</v>
       </c>
       <c r="K35" t="n">
-        <v>6.684449518273176</v>
+        <v>267.1428439929021</v>
       </c>
       <c r="L35" t="n">
-        <v>46.0953872770077</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>184.3096571683278</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0596768448573</v>
+        <v>15.04365268017745</v>
       </c>
       <c r="Q35" t="n">
         <v>272.0596768448573</v>
@@ -30037,10 +30037,10 @@
         <v>272.0596768448573</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4644104852103</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1505146112862</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V35" t="n">
         <v>272.0596768448573</v>
@@ -30062,16 +30062,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>1.201774382201421</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30107,13 +30107,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668495</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R36" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5874518930719</v>
+        <v>134.4643174275414</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30125,10 +30125,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>6.246189102382687</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30153,10 +30153,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>174.4823379339712</v>
       </c>
       <c r="G37" t="n">
-        <v>204.256079916999</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H37" t="n">
         <v>165.8230575663656</v>
@@ -30174,22 +30174,22 @@
         <v>32.12940745055725</v>
       </c>
       <c r="M37" t="n">
-        <v>25.19323846374671</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N37" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O37" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P37" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q37" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R37" t="n">
-        <v>203.4231839810569</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S37" t="n">
         <v>235.4354176286827</v>
@@ -30241,13 +30241,13 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I38" t="n">
-        <v>240.9968149183972</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="J38" t="n">
-        <v>76.75309993802782</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="K38" t="n">
-        <v>263.2251093298458</v>
+        <v>11.92199353345284</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30256,13 +30256,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3096571683277</v>
       </c>
       <c r="O38" t="n">
-        <v>225.8354817135889</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.04365268017747</v>
+        <v>15.04365268017745</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0596768448573</v>
@@ -30271,13 +30271,13 @@
         <v>272.0596768448573</v>
       </c>
       <c r="S38" t="n">
-        <v>227.5093375700639</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="T38" t="n">
         <v>272.0596768448573</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1505146112862</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V38" t="n">
         <v>272.0596768448573</v>
@@ -30302,10 +30302,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30344,28 +30344,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668495</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R39" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S39" t="n">
-        <v>48.87167064311208</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>6.246189102382687</v>
+        <v>186.3511123057824</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30405,28 +30405,28 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K40" t="n">
-        <v>67.01246855587064</v>
+        <v>102.5679242713952</v>
       </c>
       <c r="L40" t="n">
         <v>32.12940745055725</v>
       </c>
       <c r="M40" t="n">
-        <v>25.19323846374671</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N40" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O40" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P40" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q40" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R40" t="n">
-        <v>203.4231839810569</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S40" t="n">
         <v>235.4354176286827</v>
@@ -30447,7 +30447,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>252.696728529693</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -30481,28 +30481,28 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J41" t="n">
-        <v>76.75309993802782</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="K41" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>54.53995161096601</v>
+      </c>
+      <c r="N41" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="M41" t="n">
-        <v>129.1082156144464</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
       <c r="O41" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="Q41" t="n">
-        <v>89.67545097688966</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="R41" t="n">
         <v>240.9968149183972</v>
@@ -30542,13 +30542,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7444246896586</v>
@@ -30581,10 +30581,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668495</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>191.5874518930719</v>
@@ -30596,7 +30596,7 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V42" t="n">
-        <v>22.00595296935629</v>
+        <v>10.54640896308302</v>
       </c>
       <c r="W42" t="n">
         <v>240.9968149183972</v>
@@ -30645,25 +30645,25 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L43" t="n">
-        <v>32.12940745055725</v>
+        <v>135.2676854484744</v>
       </c>
       <c r="M43" t="n">
-        <v>25.19323846374671</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N43" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O43" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P43" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q43" t="n">
-        <v>230.3426427414222</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R43" t="n">
-        <v>203.4231839810569</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S43" t="n">
         <v>235.4354176286827</v>
@@ -30724,7 +30724,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="L44" t="n">
-        <v>237.8811973339942</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30733,22 +30733,22 @@
         <v>240.9968149183972</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="P44" t="n">
+        <v>54.53995161096589</v>
+      </c>
+      <c r="Q44" t="n">
         <v>240.9968149183972</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>89.67545097688966</v>
       </c>
       <c r="R44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="S44" t="n">
-        <v>227.5093375700639</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4644104852103</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="U44" t="n">
         <v>240.9968149183972</v>
@@ -30779,16 +30779,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>6.315373284789956</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H45" t="n">
         <v>125.7337882414754</v>
@@ -30818,25 +30818,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S45" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T45" t="n">
-        <v>181.2820247947214</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30876,7 +30876,7 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J46" t="n">
-        <v>120.2289512774728</v>
+        <v>223.3672292753899</v>
       </c>
       <c r="K46" t="n">
         <v>67.01246855587064</v>
@@ -30885,22 +30885,22 @@
         <v>32.12940745055725</v>
       </c>
       <c r="M46" t="n">
-        <v>128.3315164616639</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N46" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O46" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P46" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q46" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R46" t="n">
-        <v>203.4231839810569</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S46" t="n">
         <v>235.4354176286827</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H11" t="n">
-        <v>4.168753544767065</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I11" t="n">
-        <v>15.69299363208909</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J11" t="n">
-        <v>34.54829695302565</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048835</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L11" t="n">
-        <v>64.23635542690873</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M11" t="n">
-        <v>71.47532243306044</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N11" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O11" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P11" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.95737672232048</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R11" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S11" t="n">
-        <v>9.275769207995076</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T11" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2177937054332753</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H12" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I12" t="n">
-        <v>7.498599068645663</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J12" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K12" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L12" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M12" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O12" t="n">
-        <v>51.81866288876703</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P12" t="n">
-        <v>41.58904538225412</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R12" t="n">
-        <v>13.52231444786599</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S12" t="n">
-        <v>4.045422554868071</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841223</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U12" t="n">
         <v>0.01432853325218917</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1825909264705198</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H13" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J13" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K13" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L13" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M13" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N13" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O13" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P13" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R13" t="n">
-        <v>8.209952021119916</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S13" t="n">
-        <v>3.182061873127148</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7801612312831299</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009959505080210183</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,28 +31987,28 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4070551490069147</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H14" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I14" t="n">
-        <v>15.69299363208909</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J14" t="n">
         <v>34.54829695302566</v>
       </c>
       <c r="K14" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L14" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M14" t="n">
         <v>71.47532243306047</v>
       </c>
       <c r="N14" t="n">
-        <v>72.63186787517637</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O14" t="n">
         <v>68.58421323723886</v>
@@ -32017,19 +32017,19 @@
         <v>58.53503924613064</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.95737672232049</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R14" t="n">
         <v>25.56967800380563</v>
       </c>
       <c r="S14" t="n">
-        <v>9.275769207995078</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T14" t="n">
         <v>1.78188391477777</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03256441192055317</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2177937054332753</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H15" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I15" t="n">
-        <v>7.498599068645665</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J15" t="n">
         <v>20.57672898569379</v>
@@ -32081,31 +32081,31 @@
         <v>35.16890724972324</v>
       </c>
       <c r="L15" t="n">
-        <v>47.28893590997498</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M15" t="n">
-        <v>55.1839577319312</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810436</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O15" t="n">
-        <v>51.81866288876704</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P15" t="n">
-        <v>41.58904538225413</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q15" t="n">
         <v>27.80117545144757</v>
       </c>
       <c r="R15" t="n">
-        <v>13.52231444786599</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S15" t="n">
-        <v>4.045422554868072</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841226</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U15" t="n">
         <v>0.01432853325218917</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1825909264705198</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H16" t="n">
         <v>1.62339932807426</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222544</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J16" t="n">
         <v>12.90917850146575</v>
@@ -32166,7 +32166,7 @@
         <v>28.62195768301067</v>
       </c>
       <c r="N16" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O16" t="n">
         <v>25.80839749785131</v>
@@ -32178,16 +32178,16 @@
         <v>15.28950021563599</v>
       </c>
       <c r="R16" t="n">
-        <v>8.209952021119918</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S16" t="n">
-        <v>3.182061873127149</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7801612312831301</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H17" t="n">
-        <v>4.168753544767065</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I17" t="n">
-        <v>15.69299363208909</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J17" t="n">
-        <v>34.54829695302565</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K17" t="n">
-        <v>51.77894141048835</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L17" t="n">
-        <v>64.23635542690873</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M17" t="n">
-        <v>71.47532243306044</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N17" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O17" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P17" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.95737672232048</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R17" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S17" t="n">
-        <v>9.275769207995076</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T17" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2177937054332753</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H18" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I18" t="n">
-        <v>7.498599068645663</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J18" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K18" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L18" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M18" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N18" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O18" t="n">
-        <v>51.81866288876703</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P18" t="n">
-        <v>41.58904538225412</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R18" t="n">
-        <v>13.52231444786599</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S18" t="n">
-        <v>4.045422554868071</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8778614705841223</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U18" t="n">
         <v>0.01432853325218917</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1825909264705198</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H19" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J19" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K19" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L19" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M19" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N19" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O19" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P19" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R19" t="n">
-        <v>8.209952021119916</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S19" t="n">
-        <v>3.182061873127148</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7801612312831299</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009959505080210183</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H20" t="n">
-        <v>4.168753544767065</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I20" t="n">
-        <v>15.69299363208909</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J20" t="n">
-        <v>34.54829695302565</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K20" t="n">
-        <v>51.77894141048835</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L20" t="n">
-        <v>64.23635542690873</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M20" t="n">
-        <v>71.47532243306044</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N20" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O20" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P20" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.95737672232048</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R20" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S20" t="n">
-        <v>9.275769207995076</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T20" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2177937054332753</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H21" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I21" t="n">
-        <v>7.498599068645663</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J21" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K21" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L21" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M21" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O21" t="n">
-        <v>51.81866288876703</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P21" t="n">
-        <v>41.58904538225412</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R21" t="n">
-        <v>13.52231444786599</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S21" t="n">
-        <v>4.045422554868071</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841223</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U21" t="n">
         <v>0.01432853325218917</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1825909264705198</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H22" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J22" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K22" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L22" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M22" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N22" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O22" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P22" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R22" t="n">
-        <v>8.209952021119916</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S22" t="n">
-        <v>3.182061873127148</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7801612312831299</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009959505080210183</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H23" t="n">
-        <v>4.168753544767065</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I23" t="n">
-        <v>15.69299363208909</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J23" t="n">
-        <v>34.54829695302565</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K23" t="n">
-        <v>51.77894141048835</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L23" t="n">
-        <v>64.23635542690873</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M23" t="n">
-        <v>71.47532243306044</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N23" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O23" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P23" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.95737672232048</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R23" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S23" t="n">
-        <v>9.275769207995076</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T23" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2177937054332753</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H24" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I24" t="n">
-        <v>7.498599068645663</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J24" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K24" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L24" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M24" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O24" t="n">
-        <v>51.81866288876703</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P24" t="n">
-        <v>41.58904538225412</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R24" t="n">
-        <v>13.52231444786599</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S24" t="n">
-        <v>4.045422554868071</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841223</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U24" t="n">
         <v>0.01432853325218917</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1825909264705198</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H25" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J25" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K25" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L25" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M25" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N25" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O25" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P25" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R25" t="n">
-        <v>8.209952021119916</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S25" t="n">
-        <v>3.182061873127148</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7801612312831299</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009959505080210183</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H26" t="n">
-        <v>4.168753544767065</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I26" t="n">
-        <v>15.69299363208909</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J26" t="n">
-        <v>34.54829695302565</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K26" t="n">
-        <v>51.77894141048835</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L26" t="n">
-        <v>64.23635542690873</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M26" t="n">
-        <v>71.47532243306044</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N26" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O26" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P26" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.95737672232048</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R26" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S26" t="n">
-        <v>9.275769207995076</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T26" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2177937054332753</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H27" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I27" t="n">
-        <v>7.498599068645663</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J27" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K27" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L27" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M27" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O27" t="n">
-        <v>51.81866288876703</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P27" t="n">
-        <v>41.58904538225412</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R27" t="n">
-        <v>13.52231444786599</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S27" t="n">
-        <v>4.045422554868071</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841223</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U27" t="n">
         <v>0.01432853325218917</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1825909264705198</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H28" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J28" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K28" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L28" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M28" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N28" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O28" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P28" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R28" t="n">
-        <v>8.209952021119916</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S28" t="n">
-        <v>3.182061873127148</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7801612312831299</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009959505080210183</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H29" t="n">
-        <v>4.168753544767065</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I29" t="n">
-        <v>15.69299363208909</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J29" t="n">
-        <v>34.54829695302565</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K29" t="n">
-        <v>51.77894141048835</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L29" t="n">
-        <v>64.23635542690873</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M29" t="n">
-        <v>71.47532243306044</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N29" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O29" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P29" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.95737672232048</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R29" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S29" t="n">
-        <v>9.275769207995076</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T29" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2177937054332753</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H30" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I30" t="n">
-        <v>7.498599068645663</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J30" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K30" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L30" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M30" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O30" t="n">
-        <v>51.81866288876703</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P30" t="n">
-        <v>41.58904538225412</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R30" t="n">
-        <v>13.52231444786599</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S30" t="n">
-        <v>4.045422554868071</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841223</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U30" t="n">
         <v>0.01432853325218917</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1825909264705198</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H31" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J31" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K31" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L31" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M31" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N31" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O31" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P31" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R31" t="n">
-        <v>8.209952021119916</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S31" t="n">
-        <v>3.182061873127148</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7801612312831299</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009959505080210183</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H32" t="n">
-        <v>4.168753544767065</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I32" t="n">
-        <v>15.69299363208909</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J32" t="n">
-        <v>34.54829695302565</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K32" t="n">
-        <v>51.77894141048835</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L32" t="n">
-        <v>64.23635542690873</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M32" t="n">
-        <v>71.47532243306044</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N32" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O32" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P32" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.95737672232048</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R32" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S32" t="n">
-        <v>9.275769207995076</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T32" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2177937054332753</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H33" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I33" t="n">
-        <v>7.498599068645663</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J33" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K33" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L33" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M33" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O33" t="n">
-        <v>51.81866288876703</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P33" t="n">
-        <v>41.58904538225412</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R33" t="n">
-        <v>13.52231444786599</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S33" t="n">
-        <v>4.045422554868071</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841223</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U33" t="n">
         <v>0.01432853325218917</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1825909264705198</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H34" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J34" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K34" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L34" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M34" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N34" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O34" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P34" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R34" t="n">
-        <v>8.209952021119916</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S34" t="n">
-        <v>3.182061873127148</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7801612312831299</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009959505080210183</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H35" t="n">
-        <v>4.168753544767065</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I35" t="n">
-        <v>15.69299363208909</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J35" t="n">
-        <v>34.54829695302565</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K35" t="n">
-        <v>51.77894141048835</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L35" t="n">
-        <v>64.23635542690873</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M35" t="n">
-        <v>71.47532243306044</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N35" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O35" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P35" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.95737672232048</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R35" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S35" t="n">
-        <v>9.275769207995076</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T35" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2177937054332753</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H36" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I36" t="n">
-        <v>7.498599068645663</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J36" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K36" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L36" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M36" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N36" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O36" t="n">
-        <v>51.81866288876703</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P36" t="n">
-        <v>41.58904538225412</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R36" t="n">
-        <v>13.52231444786599</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S36" t="n">
-        <v>4.045422554868071</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841223</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U36" t="n">
         <v>0.01432853325218917</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1825909264705198</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H37" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J37" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K37" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L37" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M37" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N37" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O37" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P37" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R37" t="n">
-        <v>8.209952021119916</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S37" t="n">
-        <v>3.182061873127148</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7801612312831299</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009959505080210183</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H38" t="n">
-        <v>4.168753544767065</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I38" t="n">
-        <v>15.69299363208909</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J38" t="n">
-        <v>34.54829695302565</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K38" t="n">
-        <v>51.77894141048835</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L38" t="n">
-        <v>64.23635542690873</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M38" t="n">
-        <v>71.47532243306044</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N38" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O38" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P38" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.95737672232048</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R38" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S38" t="n">
-        <v>9.275769207995076</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T38" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2177937054332753</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H39" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I39" t="n">
-        <v>7.498599068645663</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J39" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K39" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L39" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M39" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N39" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O39" t="n">
-        <v>51.81866288876703</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P39" t="n">
-        <v>41.58904538225412</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R39" t="n">
-        <v>13.52231444786599</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S39" t="n">
-        <v>4.045422554868071</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841223</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U39" t="n">
         <v>0.01432853325218917</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1825909264705198</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H40" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J40" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K40" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L40" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M40" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N40" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O40" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P40" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R40" t="n">
-        <v>8.209952021119916</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S40" t="n">
-        <v>3.182061873127148</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7801612312831299</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009959505080210183</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H41" t="n">
-        <v>4.168753544767065</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I41" t="n">
-        <v>15.69299363208909</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J41" t="n">
-        <v>34.54829695302565</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K41" t="n">
-        <v>51.77894141048835</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L41" t="n">
-        <v>64.23635542690873</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M41" t="n">
-        <v>71.47532243306044</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N41" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O41" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P41" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.95737672232048</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R41" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S41" t="n">
-        <v>9.275769207995076</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T41" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2177937054332753</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H42" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I42" t="n">
-        <v>7.498599068645663</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J42" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K42" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L42" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M42" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O42" t="n">
-        <v>51.81866288876703</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P42" t="n">
-        <v>41.58904538225412</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R42" t="n">
-        <v>13.52231444786599</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S42" t="n">
-        <v>4.045422554868071</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841223</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U42" t="n">
         <v>0.01432853325218917</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1825909264705198</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H43" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J43" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K43" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L43" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M43" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N43" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O43" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P43" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R43" t="n">
-        <v>8.209952021119916</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S43" t="n">
-        <v>3.182061873127148</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7801612312831299</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009959505080210183</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H44" t="n">
-        <v>4.168753544767065</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I44" t="n">
-        <v>15.69299363208909</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J44" t="n">
-        <v>34.54829695302565</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048835</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690873</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M44" t="n">
-        <v>71.47532243306044</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O44" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P44" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.95737672232048</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R44" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S44" t="n">
-        <v>9.275769207995076</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T44" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2177937054332753</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H45" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I45" t="n">
-        <v>7.498599068645663</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J45" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K45" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L45" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O45" t="n">
-        <v>51.81866288876703</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P45" t="n">
-        <v>41.58904538225412</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R45" t="n">
-        <v>13.52231444786599</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S45" t="n">
-        <v>4.045422554868071</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841223</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U45" t="n">
         <v>0.01432853325218917</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1825909264705198</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H46" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J46" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K46" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L46" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M46" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N46" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O46" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P46" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R46" t="n">
-        <v>8.209952021119916</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S46" t="n">
-        <v>3.182061873127148</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7801612312831299</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210183</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>101.5765493865274</v>
       </c>
       <c r="K11" t="n">
-        <v>77.2365917643925</v>
+        <v>153.3589480640214</v>
       </c>
       <c r="L11" t="n">
-        <v>47.24579619221616</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M11" t="n">
-        <v>81.7376875991432</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N11" t="n">
-        <v>188.5623770505816</v>
+        <v>76.14873730630119</v>
       </c>
       <c r="O11" t="n">
-        <v>188.5623770505816</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P11" t="n">
-        <v>163.2859966443777</v>
+        <v>163.2859966443778</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>88.65419834766561</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L12" t="n">
         <v>118.55713633517</v>
       </c>
       <c r="M12" t="n">
-        <v>183.5573176570689</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N12" t="n">
-        <v>188.5623770505816</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="O12" t="n">
         <v>133.0740275578656</v>
       </c>
       <c r="P12" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,52 +35541,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7127286595870999</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.87246835258284</v>
+        <v>11.8724683525829</v>
       </c>
       <c r="D13" t="n">
-        <v>33.14699907384448</v>
+        <v>33.14699907384454</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.65350811233026</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.4027671061086</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.50659175818957</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.10069804708242</v>
+        <v>58.10069804708248</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>146.2002418739979</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>153.1364108608085</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.8325570947117</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>93.57732601758335</v>
+        <v>117.119182275965</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>51.12528458105026</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>101.5765493865273</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>171.645199806282</v>
       </c>
       <c r="L14" t="n">
-        <v>47.24579619221618</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M14" t="n">
-        <v>188.5623770505816</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N14" t="n">
-        <v>188.5623770505816</v>
+        <v>76.14873730630119</v>
       </c>
       <c r="O14" t="n">
-        <v>188.5623770505816</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P14" t="n">
-        <v>45.04370060966632</v>
+        <v>144.9997449021175</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.65419834766554</v>
+        <v>88.65419834766553</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N15" t="n">
-        <v>188.5623770505816</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="O15" t="n">
         <v>133.0740275578656</v>
@@ -35778,52 +35778,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.7127286595870714</v>
       </c>
       <c r="C16" t="n">
-        <v>11.87246835258284</v>
+        <v>11.87246835258281</v>
       </c>
       <c r="D16" t="n">
-        <v>33.14699907384448</v>
+        <v>33.14699907384446</v>
       </c>
       <c r="E16" t="n">
-        <v>36.6535081123302</v>
+        <v>36.65350811233017</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.40276710610851</v>
       </c>
       <c r="G16" t="n">
-        <v>9.629025123080746</v>
+        <v>9.629025123080718</v>
       </c>
       <c r="H16" t="n">
-        <v>12.50659175818958</v>
+        <v>12.50659175818955</v>
       </c>
       <c r="I16" t="n">
-        <v>13.48121398879832</v>
+        <v>13.48121398879829</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.1006980470824</v>
       </c>
       <c r="K16" t="n">
-        <v>111.3171807686846</v>
+        <v>111.3171807686845</v>
       </c>
       <c r="L16" t="n">
-        <v>146.200241873998</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>153.1364108608085</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>83.32095101111727</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.1252845810502</v>
+        <v>29.29387279257947</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>10.27508447025581</v>
+        <v>56.42777687366396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,31 +35887,31 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.24579619221616</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M17" t="n">
-        <v>188.5623770505816</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N17" t="n">
-        <v>76.14873730630114</v>
+        <v>76.14873730630119</v>
       </c>
       <c r="O17" t="n">
-        <v>188.5623770505816</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.5623770505816</v>
+        <v>155.7342491189872</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5641537403182</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.91525422199724</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>74.96018130685088</v>
       </c>
       <c r="U17" t="n">
         <v>47.27407718077492</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515641</v>
       </c>
       <c r="L18" t="n">
         <v>118.55713633517</v>
@@ -35975,10 +35975,10 @@
         <v>188.5623770505816</v>
       </c>
       <c r="O18" t="n">
-        <v>133.0740275578657</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P18" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,40 +36118,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>23.5996489420695</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.24579619221616</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M20" t="n">
-        <v>81.7376875991432</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N20" t="n">
-        <v>76.14873730630114</v>
+        <v>76.14873730630119</v>
       </c>
       <c r="O20" t="n">
-        <v>34.62291276104</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>59.83568411943182</v>
       </c>
       <c r="Q20" t="n">
         <v>188.5623770505816</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5641537403182</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.91525422199723</v>
+        <v>69.91525422199724</v>
       </c>
       <c r="T20" t="n">
-        <v>74.96018130685088</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>47.27407718077492</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.37582528515632</v>
+        <v>38.37582528515641</v>
       </c>
       <c r="L21" t="n">
         <v>118.55713633517</v>
@@ -36215,7 +36215,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P21" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.42777687366395</v>
+        <v>56.42777687366396</v>
       </c>
       <c r="J23" t="n">
-        <v>32.98589292195461</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="K23" t="n">
-        <v>188.5623770505818</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.24579619221616</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M23" t="n">
-        <v>81.7376875991432</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N23" t="n">
-        <v>76.14873730630114</v>
+        <v>76.14873730630119</v>
       </c>
       <c r="O23" t="n">
-        <v>188.5623770505818</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>139.651280030721</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>74.96018130685088</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.27407718077492</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L24" t="n">
         <v>118.55713633517</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5573176570695</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N24" t="n">
-        <v>188.5623770505818</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O24" t="n">
         <v>133.0740275578656</v>
       </c>
       <c r="P24" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7138767300049</v>
+        <v>136.7138767300048</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7825271497596</v>
+        <v>206.7825271497595</v>
       </c>
       <c r="L26" t="n">
-        <v>260.7127728602489</v>
+        <v>260.7127728602488</v>
       </c>
       <c r="M26" t="n">
         <v>295.2046642671759</v>
@@ -36610,13 +36610,13 @@
         <v>248.0898894290727</v>
       </c>
       <c r="P26" t="n">
-        <v>198.4233239878553</v>
+        <v>198.4233239878552</v>
       </c>
       <c r="Q26" t="n">
         <v>123.791525691143</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60653861628981</v>
+        <v>18.60653861628973</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L27" t="n">
         <v>118.55713633517</v>
@@ -36689,7 +36689,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P27" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36735,7 +36735,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>71.79083545580775</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36744,7 +36744,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.64391910166712</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>16.9539685082202</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36765,16 +36765,16 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>77.68852032377546</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0066073534239</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.26261192452775</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.04379268697589</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36838,13 +36838,13 @@
         <v>260.7127728602489</v>
       </c>
       <c r="M29" t="n">
-        <v>295.2046642671759</v>
+        <v>295.204664267176</v>
       </c>
       <c r="N29" t="n">
         <v>289.6157139743339</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0898894290727</v>
+        <v>248.0898894290728</v>
       </c>
       <c r="P29" t="n">
         <v>198.4233239878553</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L30" t="n">
         <v>118.55713633517</v>
@@ -36926,7 +36926,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P30" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36972,7 +36972,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>71.79083545580775</v>
       </c>
       <c r="F31" t="n">
         <v>74.54009444958609</v>
@@ -36981,25 +36981,25 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.64391910166712</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.23802539055997</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>38.72027867013776</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>64.91700783705264</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.713876730005</v>
+        <v>136.7138767300049</v>
       </c>
       <c r="K32" t="n">
         <v>206.7825271497596</v>
@@ -37075,13 +37075,13 @@
         <v>260.7127728602489</v>
       </c>
       <c r="M32" t="n">
-        <v>295.204664267176</v>
+        <v>295.2046642671759</v>
       </c>
       <c r="N32" t="n">
-        <v>289.615713974334</v>
+        <v>289.6157139743339</v>
       </c>
       <c r="O32" t="n">
-        <v>248.0898894290728</v>
+        <v>248.0898894290727</v>
       </c>
       <c r="P32" t="n">
         <v>198.4233239878553</v>
@@ -37090,7 +37090,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628987</v>
+        <v>18.60653861628978</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L33" t="n">
         <v>118.55713633517</v>
@@ -37163,7 +37163,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P33" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,19 +37200,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>35.85005600306462</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.00979569606037</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>68.28432641732201</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>71.79083545580772</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>9.760114104944197</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37230,10 +37230,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>44.4213894729122</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>188.2737382042861</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37303,40 +37303,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>155.4582455421682</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="L35" t="n">
-        <v>93.34118346922386</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M35" t="n">
-        <v>81.7376875991432</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N35" t="n">
-        <v>260.4583944746289</v>
+        <v>76.14873730630119</v>
       </c>
       <c r="O35" t="n">
-        <v>34.62291276104</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P35" t="n">
-        <v>257.0160241646798</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>182.3842258679677</v>
       </c>
       <c r="R35" t="n">
-        <v>77.1992387931144</v>
+        <v>77.19923879311442</v>
       </c>
       <c r="S35" t="n">
-        <v>44.55033927479341</v>
+        <v>44.55033927479342</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.59526635964706</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>21.90916223357109</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L36" t="n">
         <v>118.55713633517</v>
@@ -37400,7 +37400,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P36" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37449,10 +37449,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>35.55545571552457</v>
       </c>
       <c r="G37" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37537,25 +37537,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>31.06286192646013</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>195.3065769068295</v>
       </c>
       <c r="K38" t="n">
-        <v>256.5406598115727</v>
+        <v>5.237544015179685</v>
       </c>
       <c r="L38" t="n">
-        <v>47.24579619221616</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M38" t="n">
-        <v>81.7376875991432</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N38" t="n">
-        <v>76.14873730630114</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="O38" t="n">
-        <v>260.4583944746289</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37564,16 +37564,16 @@
         <v>182.3842258679677</v>
       </c>
       <c r="R38" t="n">
-        <v>77.1992387931144</v>
+        <v>77.19923879311442</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>44.55033927479342</v>
       </c>
       <c r="T38" t="n">
         <v>49.59526635964706</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.90916223357109</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L39" t="n">
         <v>118.55713633517</v>
@@ -37637,7 +37637,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P39" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>35.55545571552457</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37743,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.2437149803694</v>
       </c>
       <c r="K41" t="n">
-        <v>234.312365400124</v>
+        <v>234.3123654001241</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2426111106133</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M41" t="n">
-        <v>210.8459032135896</v>
+        <v>136.2776392101092</v>
       </c>
       <c r="N41" t="n">
-        <v>76.14873730630114</v>
+        <v>317.1455522246984</v>
       </c>
       <c r="O41" t="n">
-        <v>275.6197276794372</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9531622382197</v>
+        <v>225.9531622382198</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>151.3213639415076</v>
       </c>
       <c r="R41" t="n">
-        <v>46.13637686665425</v>
+        <v>46.13637686665429</v>
       </c>
       <c r="S41" t="n">
-        <v>13.48747734833325</v>
+        <v>13.48747734833328</v>
       </c>
       <c r="T41" t="n">
-        <v>18.5324044331869</v>
+        <v>18.53240443318693</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L42" t="n">
         <v>118.55713633517</v>
@@ -37874,7 +37874,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P42" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>103.1382779979171</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.1382779979172</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,34 +38017,34 @@
         <v>164.2437149803694</v>
       </c>
       <c r="K44" t="n">
-        <v>234.312365400124</v>
+        <v>234.3123654001241</v>
       </c>
       <c r="L44" t="n">
-        <v>285.1269935262104</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M44" t="n">
-        <v>81.7376875991432</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N44" t="n">
-        <v>317.1455522246983</v>
+        <v>317.1455522246984</v>
       </c>
       <c r="O44" t="n">
-        <v>34.62291276104</v>
+        <v>275.6197276794372</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9531622382197</v>
+        <v>39.49629893078844</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.3213639415076</v>
       </c>
       <c r="R44" t="n">
-        <v>46.13637686665427</v>
+        <v>46.13637686665429</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.48747734833328</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.53240443318693</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L45" t="n">
         <v>118.55713633517</v>
@@ -38111,7 +38111,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P45" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>103.1382779979171</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>103.1382779979171</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
